--- a/DOC/IO.xlsx
+++ b/DOC/IO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="128">
   <si>
     <t>I</t>
   </si>
@@ -133,6 +133,12 @@
     <t>the immediate number in instruction</t>
   </si>
   <si>
+    <t>[19:0]imm_u</t>
+  </si>
+  <si>
+    <t>the immediate number in U instruction</t>
+  </si>
+  <si>
     <t>[31:0]jmp</t>
   </si>
   <si>
@@ -169,6 +175,9 @@
     <t>the extended 32-bit immediate number</t>
   </si>
   <si>
+    <t>[31:0]imm_ext_u</t>
+  </si>
+  <si>
     <t>alu.v</t>
   </si>
   <si>
@@ -218,6 +227,12 @@
   </si>
   <si>
     <t>the offset for pc</t>
+  </si>
+  <si>
+    <t>[31:0]imm_u_ext</t>
+  </si>
+  <si>
+    <t>for auipc</t>
   </si>
   <si>
     <t>generate by the mux in this alu</t>
@@ -390,8 +405,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -411,6 +426,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -424,22 +453,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,11 +492,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -531,28 +568,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -599,187 +614,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,6 +834,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -885,26 +920,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -913,10 +928,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -925,37 +940,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -964,94 +973,100 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1444,10 +1459,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A15"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1724,68 +1739,70 @@
       <c r="E24" s="6"/>
     </row>
     <row r="25" ht="27" customHeight="1" spans="1:5">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="D25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" ht="27" customHeight="1" spans="1:5">
+      <c r="A26" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" ht="27" customHeight="1" spans="1:5">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="27" ht="27" customHeight="1" spans="1:5">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E27" s="8"/>
     </row>
     <row r="28" ht="27" customHeight="1" spans="1:5">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="D28" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="E28" s="8"/>
     </row>
     <row r="29" ht="27" customHeight="1" spans="1:5">
       <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="8" t="s">
+      <c r="B29" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="E29" s="8"/>
     </row>
     <row r="30" ht="27" customHeight="1" spans="1:5">
       <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="B30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
     </row>
@@ -1793,236 +1810,242 @@
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" ht="27" customHeight="1" spans="1:5">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" ht="27" customHeight="1" spans="1:5">
-      <c r="A32" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="D32" s="8"/>
       <c r="E32" s="8"/>
     </row>
     <row r="33" ht="27" customHeight="1" spans="1:5">
       <c r="A33" s="8"/>
-      <c r="B33" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="E33" s="8"/>
     </row>
     <row r="34" ht="27" customHeight="1" spans="1:5">
       <c r="A34" s="8"/>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" ht="27" customHeight="1" spans="1:5">
+      <c r="A35" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" ht="27" customHeight="1" spans="1:5">
-      <c r="A35" s="8"/>
-      <c r="B35" s="10" t="s">
-        <v>56</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E35" s="8"/>
     </row>
     <row r="36" ht="27" customHeight="1" spans="1:5">
       <c r="A36" s="8"/>
       <c r="B36" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="11"/>
-      <c r="D36" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="D36" s="8"/>
       <c r="E36" s="8"/>
     </row>
     <row r="37" ht="27" customHeight="1" spans="1:5">
       <c r="A37" s="8"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11" t="s">
-        <v>60</v>
-      </c>
+      <c r="B37" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="11"/>
       <c r="D37" s="8" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="E37" s="8"/>
     </row>
     <row r="38" ht="27" customHeight="1" spans="1:5">
-      <c r="A38" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>24</v>
+      <c r="A38" s="8"/>
+      <c r="B38" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>63</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" ht="27" customHeight="1" spans="1:5">
       <c r="A39" s="8"/>
-      <c r="B39" s="11" t="s">
-        <v>64</v>
+      <c r="B39" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="C39" s="11"/>
-      <c r="D39" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>66</v>
-      </c>
+      <c r="D39" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="8"/>
     </row>
     <row r="40" ht="27" customHeight="1" spans="1:5">
       <c r="A40" s="8"/>
-      <c r="B40" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="8"/>
     </row>
     <row r="41" ht="27" customHeight="1" spans="1:5">
-      <c r="A41" s="8"/>
+      <c r="A41" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="B41" s="11" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C41" s="11"/>
-      <c r="D41" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E41" s="8"/>
+      <c r="D41" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="42" ht="27" customHeight="1" spans="1:5">
       <c r="A42" s="8"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="B42" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="11"/>
       <c r="D42" s="11" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" ht="27" customHeight="1" spans="1:5">
-      <c r="A43" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>64</v>
+      <c r="A43" s="8"/>
+      <c r="B43" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="44" ht="27" customHeight="1" spans="1:5">
       <c r="A44" s="8"/>
-      <c r="B44" s="10" t="s">
-        <v>71</v>
+      <c r="B44" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>73</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E44" s="8"/>
     </row>
     <row r="45" ht="27" customHeight="1" spans="1:5">
       <c r="A45" s="8"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="11" t="s">
+      <c r="B45" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" ht="27" customHeight="1" spans="1:5">
+      <c r="A46" s="8"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" ht="27" customHeight="1" spans="1:5">
+      <c r="A47" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="B47" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E45" s="8"/>
-    </row>
-    <row r="46" ht="27" customHeight="1" spans="1:5">
-      <c r="A46" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E46" s="8"/>
-    </row>
-    <row r="47" ht="27" customHeight="1" spans="1:5">
-      <c r="A47" s="8"/>
-      <c r="B47" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
+      <c r="E47" s="11" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="48" ht="27" customHeight="1" spans="1:5">
       <c r="A48" s="8"/>
-      <c r="B48" s="11" t="s">
-        <v>45</v>
+      <c r="B48" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="C48" s="11"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
+      <c r="D48" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="49" ht="27" customHeight="1" spans="1:5">
       <c r="A49" s="8"/>
-      <c r="B49" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="8"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="E49" s="8"/>
     </row>
     <row r="50" ht="27" customHeight="1" spans="1:5">
-      <c r="A50" s="8"/>
+      <c r="A50" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="B50" s="11" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C50" s="11"/>
-      <c r="D50" s="8"/>
+      <c r="D50" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="E50" s="8"/>
     </row>
     <row r="51" ht="27" customHeight="1" spans="1:5">
       <c r="A51" s="8"/>
       <c r="B51" s="11" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="8"/>
@@ -2031,7 +2054,7 @@
     <row r="52" ht="27" customHeight="1" spans="1:5">
       <c r="A52" s="8"/>
       <c r="B52" s="11" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="8"/>
@@ -2040,7 +2063,7 @@
     <row r="53" ht="27" customHeight="1" spans="1:5">
       <c r="A53" s="8"/>
       <c r="B53" s="11" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="8"/>
@@ -2048,378 +2071,366 @@
     </row>
     <row r="54" ht="27" customHeight="1" spans="1:5">
       <c r="A54" s="8"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="11" t="s">
-        <v>60</v>
-      </c>
+      <c r="B54" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" s="11"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" ht="27" customHeight="1" spans="1:5">
       <c r="A55" s="8"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="11" t="s">
-        <v>74</v>
-      </c>
+      <c r="B55" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="11"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
     </row>
     <row r="56" ht="27" customHeight="1" spans="1:5">
       <c r="A56" s="8"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="B56" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="11"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" ht="27" customHeight="1" spans="1:5">
-      <c r="A57" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57" s="13" t="s">
+      <c r="A57" s="8"/>
+      <c r="B57" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" ht="27" customHeight="1" spans="1:5">
+      <c r="A58" s="8"/>
+      <c r="B58" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" ht="27" customHeight="1" spans="1:5">
+      <c r="A59" s="8"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" ht="27" customHeight="1" spans="1:5">
+      <c r="A60" s="8"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+    </row>
+    <row r="61" ht="27" customHeight="1" spans="1:5">
+      <c r="A61" s="8"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" ht="27" customHeight="1" spans="1:5">
+      <c r="A62" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" s="13" t="s">
         <v>4</v>
-      </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="12"/>
-    </row>
-    <row r="58" ht="27" customHeight="1" spans="1:5">
-      <c r="A58" s="12"/>
-      <c r="B58" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="12"/>
-    </row>
-    <row r="59" ht="27" customHeight="1" spans="1:5">
-      <c r="A59" s="12"/>
-      <c r="B59" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E59" s="12"/>
-    </row>
-    <row r="60" ht="27" customHeight="1" spans="1:5">
-      <c r="A60" s="12"/>
-      <c r="B60" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E60" s="12"/>
-    </row>
-    <row r="61" ht="27" customHeight="1" spans="1:5">
-      <c r="A61" s="12"/>
-      <c r="B61" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E61" s="12"/>
-    </row>
-    <row r="62" ht="27" customHeight="1" spans="1:5">
-      <c r="A62" s="12"/>
-      <c r="B62" s="13" t="s">
-        <v>85</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="12" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="E62" s="12"/>
     </row>
     <row r="63" ht="27" customHeight="1" spans="1:5">
       <c r="A63" s="12"/>
       <c r="B63" s="13" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="12" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="E63" s="12"/>
     </row>
     <row r="64" ht="27" customHeight="1" spans="1:5">
       <c r="A64" s="12"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>90</v>
-      </c>
+      <c r="B64" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64" s="12"/>
     </row>
     <row r="65" ht="27" customHeight="1" spans="1:5">
       <c r="A65" s="12"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>92</v>
+      <c r="B65" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="E65" s="12"/>
     </row>
     <row r="66" ht="27" customHeight="1" spans="1:5">
-      <c r="A66" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>60</v>
+      <c r="A66" s="12"/>
+      <c r="B66" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="C66" s="13"/>
-      <c r="D66" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>94</v>
-      </c>
+      <c r="D66" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" s="12"/>
     </row>
     <row r="67" ht="27" customHeight="1" spans="1:5">
       <c r="A67" s="12"/>
-      <c r="B67" s="14" t="s">
-        <v>95</v>
+      <c r="B67" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="C67" s="13"/>
-      <c r="D67" s="13" t="s">
-        <v>96</v>
+      <c r="D67" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="E67" s="12"/>
     </row>
     <row r="68" ht="27" customHeight="1" spans="1:5">
       <c r="A68" s="12"/>
-      <c r="B68" s="14" t="s">
-        <v>97</v>
+      <c r="B68" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="C68" s="13"/>
-      <c r="D68" s="13" t="s">
-        <v>98</v>
+      <c r="D68" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="E68" s="12"/>
     </row>
     <row r="69" ht="27" customHeight="1" spans="1:5">
       <c r="A69" s="12"/>
-      <c r="B69" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" s="13"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13" t="s">
+        <v>94</v>
+      </c>
       <c r="D69" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>99</v>
+        <v>69</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="70" ht="27" customHeight="1" spans="1:5">
       <c r="A70" s="12"/>
-      <c r="B70" s="14"/>
+      <c r="B70" s="13"/>
       <c r="C70" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>88</v>
+        <v>96</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="E70" s="12"/>
     </row>
     <row r="71" ht="27" customHeight="1" spans="1:5">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" ht="27" customHeight="1" spans="1:5">
+      <c r="A72" s="12"/>
+      <c r="B72" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B71" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E71" s="17"/>
-    </row>
-    <row r="72" ht="27" customHeight="1" spans="1:5">
-      <c r="A72" s="15"/>
-      <c r="B72" s="16" t="s">
+      <c r="C72" s="13"/>
+      <c r="D72" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E72" s="12"/>
+    </row>
+    <row r="73" ht="27" customHeight="1" spans="1:5">
+      <c r="A73" s="12"/>
+      <c r="B73" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E73" s="12"/>
+    </row>
+    <row r="74" ht="27" customHeight="1" spans="1:5">
+      <c r="A74" s="12"/>
+      <c r="B74" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E74" s="12"/>
+    </row>
+    <row r="75" ht="27" customHeight="1" spans="1:5">
+      <c r="A75" s="12"/>
+      <c r="B75" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" ht="27" customHeight="1" spans="1:5">
+      <c r="A76" s="12"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E76" s="12"/>
+    </row>
+    <row r="77" ht="27" customHeight="1" spans="1:5">
+      <c r="A77" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E72" s="17"/>
-    </row>
-    <row r="73" ht="27" customHeight="1" spans="1:5">
-      <c r="A73" s="15"/>
-      <c r="B73" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E73" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" ht="27" customHeight="1" spans="1:5">
-      <c r="A74" s="15"/>
-      <c r="B74" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" ht="27" customHeight="1" spans="1:5">
-      <c r="A75" s="15"/>
-      <c r="B75" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="76" ht="27" customHeight="1" spans="1:5">
-      <c r="A76" s="15"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E76" s="18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" ht="27" customHeight="1" spans="1:5">
-      <c r="A77" s="15"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16" t="s">
-        <v>108</v>
-      </c>
+      <c r="C77" s="17"/>
       <c r="D77" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E77" s="18"/>
+        <v>69</v>
+      </c>
+      <c r="E77" s="17"/>
     </row>
     <row r="78" ht="27" customHeight="1" spans="1:5">
       <c r="A78" s="15"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E78" s="15"/>
+      <c r="B78" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E78" s="17"/>
     </row>
     <row r="79" ht="27" customHeight="1" spans="1:5">
       <c r="A79" s="15"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>10</v>
+      <c r="B79" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="80" ht="27" customHeight="1" spans="1:5">
       <c r="A80" s="15"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" s="15"/>
+      <c r="B80" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="81" ht="27" customHeight="1" spans="1:5">
       <c r="A81" s="15"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E81" s="15"/>
+      <c r="B81" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="82" ht="27" customHeight="1" spans="1:5">
       <c r="A82" s="15"/>
       <c r="B82" s="16"/>
-      <c r="C82" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D82" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E82" s="15" t="s">
+      <c r="C82" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D82" s="17" t="s">
         <v>111</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="83" ht="27" customHeight="1" spans="1:5">
       <c r="A83" s="15"/>
       <c r="B83" s="16"/>
-      <c r="C83" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D83" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E83" s="15"/>
+      <c r="C83" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E83" s="18"/>
     </row>
     <row r="84" ht="27" customHeight="1" spans="1:5">
-      <c r="A84" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B84" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C84" s="17"/>
+      <c r="A84" s="15"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="17" t="s">
+        <v>84</v>
+      </c>
       <c r="D84" s="15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E84" s="15"/>
     </row>
     <row r="85" ht="27" customHeight="1" spans="1:5">
       <c r="A85" s="15"/>
-      <c r="B85" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C85" s="17"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="86" ht="27" customHeight="1" spans="1:5">
       <c r="A86" s="15"/>
-      <c r="B86" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C86" s="17"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="D86" s="15" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="E86" s="15"/>
     </row>
@@ -2427,98 +2438,160 @@
       <c r="A87" s="15"/>
       <c r="B87" s="16"/>
       <c r="C87" s="17" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="D87" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="15"/>
+    </row>
+    <row r="88" ht="27" customHeight="1" spans="1:5">
+      <c r="A88" s="15"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E88" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="E87" s="15"/>
-    </row>
-    <row r="88" ht="27" customHeight="1" spans="1:5">
-      <c r="A88" s="20" t="s">
+    </row>
+    <row r="89" ht="27" customHeight="1" spans="1:5">
+      <c r="A89" s="15"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D89" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E89" s="15"/>
+    </row>
+    <row r="90" ht="27" customHeight="1" spans="1:5">
+      <c r="A90" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B88" s="21" t="s">
+      <c r="B90" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90" s="17"/>
+      <c r="D90" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C88" s="22"/>
-      <c r="D88" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E88" s="20"/>
-    </row>
-    <row r="89" ht="27" customHeight="1" spans="1:5">
-      <c r="A89" s="20"/>
-      <c r="B89" s="21" t="s">
+      <c r="E90" s="15"/>
+    </row>
+    <row r="91" ht="27" customHeight="1" spans="1:5">
+      <c r="A91" s="15"/>
+      <c r="B91" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C91" s="17"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+    </row>
+    <row r="92" ht="27" customHeight="1" spans="1:5">
+      <c r="A92" s="15"/>
+      <c r="B92" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C92" s="17"/>
+      <c r="D92" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E92" s="15"/>
+    </row>
+    <row r="93" ht="27" customHeight="1" spans="1:5">
+      <c r="A93" s="15"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E93" s="15"/>
+    </row>
+    <row r="94" ht="27" customHeight="1" spans="1:5">
+      <c r="A94" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C94" s="22"/>
+      <c r="D94" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E94" s="20"/>
+    </row>
+    <row r="95" ht="27" customHeight="1" spans="1:5">
+      <c r="A95" s="20"/>
+      <c r="B95" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C89" s="22"/>
-      <c r="D89" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E89" s="20"/>
-    </row>
-    <row r="90" ht="27" customHeight="1" spans="1:5">
-      <c r="A90" s="20"/>
-      <c r="B90" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C90" s="22"/>
-      <c r="D90" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="E90" s="20"/>
-    </row>
-    <row r="91" ht="27" customHeight="1" spans="1:5">
-      <c r="A91" s="20"/>
-      <c r="B91" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C91" s="22"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
-    </row>
-    <row r="92" ht="27" customHeight="1" spans="1:5">
-      <c r="A92" s="20"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D92" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E92" s="20"/>
-    </row>
-    <row r="93" ht="27" customHeight="1" spans="1:5">
-      <c r="A93" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="B93" s="21" t="s">
+      <c r="C95" s="22"/>
+      <c r="D95" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E95" s="20"/>
+    </row>
+    <row r="96" ht="27" customHeight="1" spans="1:5">
+      <c r="A96" s="20"/>
+      <c r="B96" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C96" s="22"/>
+      <c r="D96" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E96" s="20"/>
+    </row>
+    <row r="97" ht="27" customHeight="1" spans="1:5">
+      <c r="A97" s="20"/>
+      <c r="B97" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C97" s="22"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
+    </row>
+    <row r="98" ht="27" customHeight="1" spans="1:5">
+      <c r="A98" s="20"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E98" s="20"/>
+    </row>
+    <row r="99" ht="27" customHeight="1" spans="1:5">
+      <c r="A99" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B99" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C93" s="22"/>
-      <c r="D93" s="20" t="s">
+      <c r="C99" s="22"/>
+      <c r="D99" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E93" s="20"/>
-    </row>
-    <row r="94" ht="27" customHeight="1" spans="1:5">
-      <c r="A94" s="20"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D94" s="20" t="s">
+      <c r="E99" s="20"/>
+    </row>
+    <row r="100" ht="27" customHeight="1" spans="1:5">
+      <c r="A100" s="20"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D100" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E94" s="20"/>
-    </row>
-    <row r="95" ht="27" customHeight="1"/>
-    <row r="96" ht="27" customHeight="1"/>
-    <row r="97" ht="27" customHeight="1"/>
-    <row r="98" ht="27" customHeight="1"/>
-    <row r="99" ht="27" customHeight="1"/>
-    <row r="100" ht="27" customHeight="1"/>
+      <c r="E100" s="20"/>
+    </row>
     <row r="101" ht="27" customHeight="1"/>
     <row r="102" ht="27" customHeight="1"/>
     <row r="103" ht="27" customHeight="1"/>
@@ -2532,66 +2605,74 @@
     <row r="111" ht="27" customHeight="1"/>
     <row r="112" ht="27" customHeight="1"/>
     <row r="113" ht="27" customHeight="1"/>
+    <row r="114" ht="27" customHeight="1"/>
+    <row r="115" ht="27" customHeight="1"/>
+    <row r="116" ht="27" customHeight="1"/>
+    <row r="117" ht="27" customHeight="1"/>
+    <row r="118" ht="27" customHeight="1"/>
+    <row r="119" ht="27" customHeight="1"/>
   </sheetData>
-  <mergeCells count="58">
+  <mergeCells count="60">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
     <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D49:E49"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D84:E84"/>
     <mergeCell ref="D92:E92"/>
     <mergeCell ref="D93:E93"/>
     <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D100:E100"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A56"/>
-    <mergeCell ref="A57:A65"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="A71:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="A26:A34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A61"/>
+    <mergeCell ref="A62:A70"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A77:A89"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A100"/>
     <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E17:E24"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="E17:E25"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="E71:E74"/>
     <mergeCell ref="E82:E83"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="E88:E89"/>
     <mergeCell ref="D9:E15"/>
     <mergeCell ref="D29:E30"/>
-    <mergeCell ref="D27:E28"/>
-    <mergeCell ref="D32:E33"/>
-    <mergeCell ref="D46:E56"/>
-    <mergeCell ref="D84:E85"/>
+    <mergeCell ref="D31:E32"/>
+    <mergeCell ref="D35:E36"/>
+    <mergeCell ref="D50:E61"/>
     <mergeCell ref="D90:E91"/>
+    <mergeCell ref="D96:E97"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/DOC/IO.xlsx
+++ b/DOC/IO.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="overall" sheetId="1" r:id="rId1"/>
+    <sheet name="overall-SingleCycle" sheetId="1" r:id="rId1"/>
+    <sheet name="Pipeline" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="361">
   <si>
     <t>I</t>
   </si>
@@ -398,6 +399,705 @@
   </si>
   <si>
     <t>[31:0]instr_out</t>
+  </si>
+  <si>
+    <t>module</t>
+  </si>
+  <si>
+    <t>signal</t>
+  </si>
+  <si>
+    <t>input/output</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>//bus width</t>
+  </si>
+  <si>
+    <t>//hold code</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>BUS_ADDR_REG</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>HOLD_CODE_NOPE</t>
+  </si>
+  <si>
+    <t>3'b000</t>
+  </si>
+  <si>
+    <t>BUS_ADDR_MEM</t>
+  </si>
+  <si>
+    <t>31:0</t>
+  </si>
+  <si>
+    <t>HOLD_CODE_PC</t>
+  </si>
+  <si>
+    <t>3'b001</t>
+  </si>
+  <si>
+    <t>hold_code</t>
+  </si>
+  <si>
+    <t>`BUS_HOLD_CODE</t>
+  </si>
+  <si>
+    <t>if hold_code&gt;`HOLD_CODE_PC, pc will not change</t>
+  </si>
+  <si>
+    <t>BUS_DATA_REG</t>
+  </si>
+  <si>
+    <t>HOLD_CODE_IF</t>
+  </si>
+  <si>
+    <t>3'b010</t>
+  </si>
+  <si>
+    <t>to decide whether to jump</t>
+  </si>
+  <si>
+    <t>BUS_DATA_MEM</t>
+  </si>
+  <si>
+    <t>HOLD_CODE_ID</t>
+  </si>
+  <si>
+    <t>3'b011</t>
+  </si>
+  <si>
+    <t>jmp_to</t>
+  </si>
+  <si>
+    <t>`BUS_ADDR_MEM</t>
+  </si>
+  <si>
+    <t>the target of jumping</t>
+  </si>
+  <si>
+    <t>BUS_ALU_OP</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>HOLD_CODE_EX</t>
+  </si>
+  <si>
+    <t>3'b100</t>
+  </si>
+  <si>
+    <t>addr_instr</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>`BUS_DATA_MEM</t>
+  </si>
+  <si>
+    <t>the address of the instruction to be fetch</t>
+  </si>
+  <si>
+    <t>BUS_L_CODE</t>
+  </si>
+  <si>
+    <t>if_stage.v</t>
+  </si>
+  <si>
+    <t>if hold_code&gt;`HOLD_CODE_IF, the instruction will not change</t>
+  </si>
+  <si>
+    <t>BUS_S_CODE</t>
+  </si>
+  <si>
+    <t>instr_rd_i</t>
+  </si>
+  <si>
+    <t>the instruction from memory</t>
+  </si>
+  <si>
+    <t>BUS_JMP_FLAG</t>
+  </si>
+  <si>
+    <t>instr_mask_i</t>
+  </si>
+  <si>
+    <t>1~instr=`ZERO_WORD/0~the instruction can be received normally</t>
+  </si>
+  <si>
+    <t>BUS_BYTE_DATA</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>instr_rd_o</t>
+  </si>
+  <si>
+    <t>the instruction to be operated</t>
+  </si>
+  <si>
+    <t>BUS_HOLD_CODE</t>
+  </si>
+  <si>
+    <t>instr_rd_en_o</t>
+  </si>
+  <si>
+    <t>to decide whether to get new instruction</t>
+  </si>
+  <si>
+    <t>decoder.v</t>
+  </si>
+  <si>
+    <t>data_rs1_reg</t>
+  </si>
+  <si>
+    <t>`BUS_DATA_REG</t>
+  </si>
+  <si>
+    <t>the data in rs1 from regs.v(may be not update caused by data hazard)</t>
+  </si>
+  <si>
+    <t>//jmp code</t>
+  </si>
+  <si>
+    <t>//load code</t>
+  </si>
+  <si>
+    <t>data_rs2_reg</t>
+  </si>
+  <si>
+    <t>the data in rs2 from regs.v(may be not update caused by data hazard)</t>
+  </si>
+  <si>
+    <t>JMP_NOPE</t>
+  </si>
+  <si>
+    <t>INSTR_LB</t>
+  </si>
+  <si>
+    <t>reg_rd_addr_t</t>
+  </si>
+  <si>
+    <t>`BUS_ADDR_REG</t>
+  </si>
+  <si>
+    <t>the address of rd in the last instruction(from id_ex.v)</t>
+  </si>
+  <si>
+    <t>JMP_J</t>
+  </si>
+  <si>
+    <t>INSTR_LH</t>
+  </si>
+  <si>
+    <t>data_bypass</t>
+  </si>
+  <si>
+    <t>the result of ex module, used for bypass</t>
+  </si>
+  <si>
+    <t>INSTR_BEQ</t>
+  </si>
+  <si>
+    <t>INSTR_LW</t>
+  </si>
+  <si>
+    <t>instr</t>
+  </si>
+  <si>
+    <t>INSTR_BNE</t>
+  </si>
+  <si>
+    <t>3'B001</t>
+  </si>
+  <si>
+    <t>INSTR_LBU</t>
+  </si>
+  <si>
+    <t>the address of the instruction</t>
+  </si>
+  <si>
+    <t>INSTR_BLT</t>
+  </si>
+  <si>
+    <t>3'B100</t>
+  </si>
+  <si>
+    <t>INSTR_LHU</t>
+  </si>
+  <si>
+    <t>3'b101</t>
+  </si>
+  <si>
+    <t>load_code_t</t>
+  </si>
+  <si>
+    <t>`BUS_L_CODE</t>
+  </si>
+  <si>
+    <t>the load code in the last instruction(from id_ex.v)</t>
+  </si>
+  <si>
+    <t>INSTR_BGE</t>
+  </si>
+  <si>
+    <t>3'B101</t>
+  </si>
+  <si>
+    <t>LOAD_NOPE</t>
+  </si>
+  <si>
+    <t>3'b111</t>
+  </si>
+  <si>
+    <t>data_rs1</t>
+  </si>
+  <si>
+    <t>the data in rs1 actually</t>
+  </si>
+  <si>
+    <t>INSTR_BLTU</t>
+  </si>
+  <si>
+    <t>3'B110</t>
+  </si>
+  <si>
+    <t>data_rs2</t>
+  </si>
+  <si>
+    <t>the data in rs2 actually</t>
+  </si>
+  <si>
+    <t>INSTR_BGEU</t>
+  </si>
+  <si>
+    <t>3'B111</t>
+  </si>
+  <si>
+    <t>alu_operation</t>
+  </si>
+  <si>
+    <t>`BUS_ALU_OP</t>
+  </si>
+  <si>
+    <t>to decide the operation in ex</t>
+  </si>
+  <si>
+    <t>//store code</t>
+  </si>
+  <si>
+    <t>alu_add_sub</t>
+  </si>
+  <si>
+    <t>0~add/1~sub</t>
+  </si>
+  <si>
+    <t>INSTR_SB</t>
+  </si>
+  <si>
+    <t>alu_shift</t>
+  </si>
+  <si>
+    <t>0~shift right logic/1~shift right arithmetic</t>
+  </si>
+  <si>
+    <t>INSTR_SH</t>
+  </si>
+  <si>
+    <t>alu_op_num1</t>
+  </si>
+  <si>
+    <t>to generate the result of alu in module ex</t>
+  </si>
+  <si>
+    <t>INSTR_SW</t>
+  </si>
+  <si>
+    <t>alu_op_num2</t>
+  </si>
+  <si>
+    <t>STORE_NOPE</t>
+  </si>
+  <si>
+    <t>jmp_op_num1</t>
+  </si>
+  <si>
+    <t>to generate the jump target in module ctrl</t>
+  </si>
+  <si>
+    <t>jmp_op_num2</t>
+  </si>
+  <si>
+    <t>jmp_flag</t>
+  </si>
+  <si>
+    <t>`BUS_JMP_FLAG</t>
+  </si>
+  <si>
+    <t>to decide the type of jump instruction</t>
+  </si>
+  <si>
+    <t>load_code</t>
+  </si>
+  <si>
+    <t>to decide the type of load instruction</t>
+  </si>
+  <si>
+    <t>store_code</t>
+  </si>
+  <si>
+    <t>`BUS_S_CODE</t>
+  </si>
+  <si>
+    <t>to decide the type of store instruction</t>
+  </si>
+  <si>
+    <t>reg_rs1_addr</t>
+  </si>
+  <si>
+    <t>the address of rs1(will be 0 if there is not rs1 period in instruction)</t>
+  </si>
+  <si>
+    <t>reg_rs2_addr</t>
+  </si>
+  <si>
+    <t>the address of rs2(will be 0 if there is not rs2 period in instruction)</t>
+  </si>
+  <si>
+    <t>reg_wr_addr</t>
+  </si>
+  <si>
+    <t>the address of rd(will be 0 if there is not rd period in instruction)</t>
+  </si>
+  <si>
+    <t>reg_wr_en</t>
+  </si>
+  <si>
+    <t>whether to write in the registers</t>
+  </si>
+  <si>
+    <t>load_bypass</t>
+  </si>
+  <si>
+    <t>whether the load hazard happens(will be 1 if load xA before read xA)</t>
+  </si>
+  <si>
+    <t>id_ex.v</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>data_rs1_i</t>
+  </si>
+  <si>
+    <t>the input of pipeline dff,all from decoder.v</t>
+  </si>
+  <si>
+    <t>data_rs2_i</t>
+  </si>
+  <si>
+    <t>addr_rd_i</t>
+  </si>
+  <si>
+    <t>reg_wr_en_i</t>
+  </si>
+  <si>
+    <t>load_code_i</t>
+  </si>
+  <si>
+    <t>store_code_i</t>
+  </si>
+  <si>
+    <t>alu_add_sub_i</t>
+  </si>
+  <si>
+    <t>alu_shift_i</t>
+  </si>
+  <si>
+    <t>alu_operation_i</t>
+  </si>
+  <si>
+    <t>alu_op_num1_i</t>
+  </si>
+  <si>
+    <t>alu_op_num2_i</t>
+  </si>
+  <si>
+    <t>hold_n</t>
+  </si>
+  <si>
+    <t>generated by hold code in id_stage.v</t>
+  </si>
+  <si>
+    <t>data_rs1_o</t>
+  </si>
+  <si>
+    <t>the output of pipeline dff</t>
+  </si>
+  <si>
+    <t>data_rs2_o</t>
+  </si>
+  <si>
+    <t>addr_rd_o</t>
+  </si>
+  <si>
+    <t>reg_wr_en_o</t>
+  </si>
+  <si>
+    <t>load_code_o</t>
+  </si>
+  <si>
+    <t>store_code_o</t>
+  </si>
+  <si>
+    <t>alu_add_sub_o</t>
+  </si>
+  <si>
+    <t>alu_shift_o</t>
+  </si>
+  <si>
+    <t>alu_operation_o</t>
+  </si>
+  <si>
+    <t>alu_op_num1_o</t>
+  </si>
+  <si>
+    <t>alu_op_num2_o</t>
+  </si>
+  <si>
+    <t>id_stage.v</t>
+  </si>
+  <si>
+    <t>if hold_code&gt;`HOLD_CODE_ID, the data in dff will not change</t>
+  </si>
+  <si>
+    <t>the direct input of decoder.v</t>
+  </si>
+  <si>
+    <t>data_bypass_i</t>
+  </si>
+  <si>
+    <t>instr_i</t>
+  </si>
+  <si>
+    <t>addr_instr_i</t>
+  </si>
+  <si>
+    <t>jmp_op_num1_o</t>
+  </si>
+  <si>
+    <t>to decide whether to jump(from decoder.v to ctrl.v)</t>
+  </si>
+  <si>
+    <t>jmp_op_num2_o</t>
+  </si>
+  <si>
+    <t>jmp_flag_o</t>
+  </si>
+  <si>
+    <t>jmpb_rs1_o</t>
+  </si>
+  <si>
+    <t>jmpb_rs2_o</t>
+  </si>
+  <si>
+    <t>load_bypass_o</t>
+  </si>
+  <si>
+    <t>whether the load hazard happens(from decoder.v to ctrl.v)</t>
+  </si>
+  <si>
+    <t>addr_rs1_o</t>
+  </si>
+  <si>
+    <t>the address of registers to be read(from decoder.v to regs.v)</t>
+  </si>
+  <si>
+    <t>addr_rs2_o</t>
+  </si>
+  <si>
+    <t>addr_wr_o</t>
+  </si>
+  <si>
+    <t>not actually used</t>
+  </si>
+  <si>
+    <t>to decide the data to store in memory</t>
+  </si>
+  <si>
+    <t>to decide whether to load</t>
+  </si>
+  <si>
+    <t>to decide the which result to output</t>
+  </si>
+  <si>
+    <t>the input of alu</t>
+  </si>
+  <si>
+    <t>alu_result</t>
+  </si>
+  <si>
+    <t>the result to output, alse used for bypass</t>
+  </si>
+  <si>
+    <t>data_mem_wr</t>
+  </si>
+  <si>
+    <t>the data to store in memory(part of data_rs2)</t>
+  </si>
+  <si>
+    <t>addr_mem_wr</t>
+  </si>
+  <si>
+    <t>the address of memory to store</t>
+  </si>
+  <si>
+    <t>addr_mem_rd</t>
+  </si>
+  <si>
+    <t>the address of memory to load</t>
+  </si>
+  <si>
+    <t>mem_state</t>
+  </si>
+  <si>
+    <t>1~store/0~read, default to read</t>
+  </si>
+  <si>
+    <t>ex_mem.v</t>
+  </si>
+  <si>
+    <t>generated by hold code in ex_stage.v</t>
+  </si>
+  <si>
+    <t>data_mem_i</t>
+  </si>
+  <si>
+    <t>the data from memory</t>
+  </si>
+  <si>
+    <t>data_alu_i</t>
+  </si>
+  <si>
+    <t>addr_reg_wr_i</t>
+  </si>
+  <si>
+    <t>the address of registers to be write</t>
+  </si>
+  <si>
+    <t>the enable signal for regs.v writing</t>
+  </si>
+  <si>
+    <t>to decide which data to write in regs.v</t>
+  </si>
+  <si>
+    <t>addr_reg_wr_o</t>
+  </si>
+  <si>
+    <t>data_reg_wr_o</t>
+  </si>
+  <si>
+    <t>the data to write in regs.v</t>
+  </si>
+  <si>
+    <t>ex_stage.v</t>
+  </si>
+  <si>
+    <t>if hold_code&gt;`HOLD_CODE_EX, the data in dff will not change</t>
+  </si>
+  <si>
+    <t>the direct input of ex.v</t>
+  </si>
+  <si>
+    <t>the data from memory, the input of ex_mem.v</t>
+  </si>
+  <si>
+    <t>the input for dff, a buffer for register writing</t>
+  </si>
+  <si>
+    <t>alu_result_o</t>
+  </si>
+  <si>
+    <t>used for bypass, from ex.v to decoder.v</t>
+  </si>
+  <si>
+    <t>mem_state_o</t>
+  </si>
+  <si>
+    <t>to control the interact with memory, the output from ex.v</t>
+  </si>
+  <si>
+    <t>data_mem_wr_o</t>
+  </si>
+  <si>
+    <t>addr_mem_wr_o</t>
+  </si>
+  <si>
+    <t>addr_mem_rd_o</t>
+  </si>
+  <si>
+    <t>to control the interact with regs.v, the output from ex_mem.v</t>
+  </si>
+  <si>
+    <t>jmp_num1_i</t>
+  </si>
+  <si>
+    <t>used to generate the target of jump instruction</t>
+  </si>
+  <si>
+    <t>jmp_num2_i</t>
+  </si>
+  <si>
+    <t>used to judge the branch instruction</t>
+  </si>
+  <si>
+    <t>jmp_flag_i</t>
+  </si>
+  <si>
+    <t>the type of jump instruction</t>
+  </si>
+  <si>
+    <t>load_bypass_i</t>
+  </si>
+  <si>
+    <t>whether the load hazard happens</t>
+  </si>
+  <si>
+    <t>jmp_en_o</t>
+  </si>
+  <si>
+    <t>to control the jump action in pc.v</t>
+  </si>
+  <si>
+    <t>jmp_to_o</t>
+  </si>
+  <si>
+    <t>instr_mask_o</t>
+  </si>
+  <si>
+    <t>to decide whether to flush the instruction in if_stage.v</t>
+  </si>
+  <si>
+    <t>hold_code_o</t>
+  </si>
+  <si>
+    <t>to control the hold of pipeline</t>
   </si>
 </sst>
 </file>
@@ -405,12 +1105,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,27 +1120,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,6 +1160,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -468,9 +1176,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,28 +1260,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -522,48 +1268,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,7 +1320,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,13 +1398,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,13 +1422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,7 +1440,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,43 +1464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,25 +1482,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,31 +1500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,6 +1529,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -840,20 +1572,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,7 +1613,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -885,38 +1621,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -928,180 +1634,192 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1113,13 +1831,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1134,7 +1852,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1461,1136 +2179,1136 @@
   <sheetPr/>
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="39.875" customWidth="1"/>
     <col min="5" max="5" width="42.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:5">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" ht="26" customHeight="1" spans="1:5">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:5">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" ht="27" customHeight="1" spans="1:5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="1:5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:5">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" ht="27" customHeight="1" spans="1:5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" ht="26" customHeight="1" spans="1:5">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" ht="27" customHeight="1" spans="1:5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" ht="27" customHeight="1" spans="1:5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" ht="27" customHeight="1" spans="1:5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" ht="26" customHeight="1" spans="1:5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="4" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" ht="27" customHeight="1" spans="1:5">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" ht="26" customHeight="1" spans="1:5">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="6" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" ht="27" customHeight="1" spans="1:5">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="6" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" ht="26" customHeight="1" spans="1:5">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="6" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" ht="27" customHeight="1" spans="1:5">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="6" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" ht="27" customHeight="1" spans="1:5">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="6" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" ht="27" customHeight="1" spans="1:5">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="6" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="6"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" ht="27" customHeight="1" spans="1:5">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="6" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="6"/>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" ht="27" customHeight="1" spans="1:5">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="6" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" ht="27" customHeight="1" spans="1:5">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="6" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="6"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" ht="27" customHeight="1" spans="1:5">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8" t="s">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" ht="27" customHeight="1" spans="1:5">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8" t="s">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="8"/>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" ht="27" customHeight="1" spans="1:5">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="8"/>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" ht="27" customHeight="1" spans="1:5">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8" t="s">
+      <c r="C29" s="12"/>
+      <c r="D29" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="8"/>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" ht="27" customHeight="1" spans="1:5">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" ht="27" customHeight="1" spans="1:5">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="8" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="8"/>
+      <c r="E31" s="12"/>
     </row>
     <row r="32" ht="27" customHeight="1" spans="1:5">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="8" t="s">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" ht="27" customHeight="1" spans="1:5">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="8" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="8"/>
+      <c r="E33" s="12"/>
     </row>
     <row r="34" ht="27" customHeight="1" spans="1:5">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="8" t="s">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="8"/>
+      <c r="E34" s="12"/>
     </row>
     <row r="35" ht="27" customHeight="1" spans="1:5">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="8" t="s">
+      <c r="C35" s="15"/>
+      <c r="D35" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="8"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" ht="27" customHeight="1" spans="1:5">
-      <c r="A36" s="8"/>
-      <c r="B36" s="10" t="s">
+      <c r="A36" s="12"/>
+      <c r="B36" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
     </row>
     <row r="37" ht="27" customHeight="1" spans="1:5">
-      <c r="A37" s="8"/>
-      <c r="B37" s="10" t="s">
+      <c r="A37" s="12"/>
+      <c r="B37" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="8" t="s">
+      <c r="C37" s="15"/>
+      <c r="D37" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="8"/>
+      <c r="E37" s="12"/>
     </row>
     <row r="38" ht="27" customHeight="1" spans="1:5">
-      <c r="A38" s="8"/>
-      <c r="B38" s="10" t="s">
+      <c r="A38" s="12"/>
+      <c r="B38" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="8" t="s">
+      <c r="C38" s="15"/>
+      <c r="D38" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="8"/>
+      <c r="E38" s="12"/>
     </row>
     <row r="39" ht="27" customHeight="1" spans="1:5">
-      <c r="A39" s="8"/>
-      <c r="B39" s="10" t="s">
+      <c r="A39" s="12"/>
+      <c r="B39" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="8" t="s">
+      <c r="C39" s="15"/>
+      <c r="D39" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="8"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" ht="27" customHeight="1" spans="1:5">
-      <c r="A40" s="8"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11" t="s">
+      <c r="A40" s="12"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="8"/>
+      <c r="E40" s="12"/>
     </row>
     <row r="41" ht="27" customHeight="1" spans="1:5">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="8" t="s">
+      <c r="C41" s="15"/>
+      <c r="D41" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="42" ht="27" customHeight="1" spans="1:5">
-      <c r="A42" s="8"/>
-      <c r="B42" s="11" t="s">
+      <c r="A42" s="12"/>
+      <c r="B42" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11" t="s">
+      <c r="C42" s="15"/>
+      <c r="D42" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="43" ht="27" customHeight="1" spans="1:5">
-      <c r="A43" s="8"/>
-      <c r="B43" s="11" t="s">
+      <c r="A43" s="12"/>
+      <c r="B43" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="44" ht="27" customHeight="1" spans="1:5">
-      <c r="A44" s="8"/>
-      <c r="B44" s="11" t="s">
+      <c r="A44" s="12"/>
+      <c r="B44" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="8"/>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" ht="27" customHeight="1" spans="1:5">
-      <c r="A45" s="8"/>
-      <c r="B45" s="11" t="s">
+      <c r="A45" s="12"/>
+      <c r="B45" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11" t="s">
+      <c r="C45" s="15"/>
+      <c r="D45" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="8"/>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" ht="27" customHeight="1" spans="1:5">
-      <c r="A46" s="8"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="11" t="s">
+      <c r="A46" s="12"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="47" ht="27" customHeight="1" spans="1:5">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11" t="s">
+      <c r="C47" s="15"/>
+      <c r="D47" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="48" ht="27" customHeight="1" spans="1:5">
-      <c r="A48" s="8"/>
-      <c r="B48" s="10" t="s">
+      <c r="A48" s="12"/>
+      <c r="B48" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11" t="s">
+      <c r="C48" s="15"/>
+      <c r="D48" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="15" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="49" ht="27" customHeight="1" spans="1:5">
-      <c r="A49" s="8"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="11" t="s">
+      <c r="A49" s="12"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E49" s="8"/>
+      <c r="E49" s="12"/>
     </row>
     <row r="50" ht="27" customHeight="1" spans="1:5">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="8" t="s">
+      <c r="C50" s="15"/>
+      <c r="D50" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E50" s="8"/>
+      <c r="E50" s="12"/>
     </row>
     <row r="51" ht="27" customHeight="1" spans="1:5">
-      <c r="A51" s="8"/>
-      <c r="B51" s="11" t="s">
+      <c r="A51" s="12"/>
+      <c r="B51" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
     </row>
     <row r="52" ht="27" customHeight="1" spans="1:5">
-      <c r="A52" s="8"/>
-      <c r="B52" s="11" t="s">
+      <c r="A52" s="12"/>
+      <c r="B52" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
     </row>
     <row r="53" ht="27" customHeight="1" spans="1:5">
-      <c r="A53" s="8"/>
-      <c r="B53" s="11" t="s">
+      <c r="A53" s="12"/>
+      <c r="B53" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
     </row>
     <row r="54" ht="27" customHeight="1" spans="1:5">
-      <c r="A54" s="8"/>
-      <c r="B54" s="11" t="s">
+      <c r="A54" s="12"/>
+      <c r="B54" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
     </row>
     <row r="55" ht="27" customHeight="1" spans="1:5">
-      <c r="A55" s="8"/>
-      <c r="B55" s="11" t="s">
+      <c r="A55" s="12"/>
+      <c r="B55" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
     </row>
     <row r="56" ht="27" customHeight="1" spans="1:5">
-      <c r="A56" s="8"/>
-      <c r="B56" s="11" t="s">
+      <c r="A56" s="12"/>
+      <c r="B56" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
     </row>
     <row r="57" ht="27" customHeight="1" spans="1:5">
-      <c r="A57" s="8"/>
-      <c r="B57" s="11" t="s">
+      <c r="A57" s="12"/>
+      <c r="B57" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
     </row>
     <row r="58" ht="27" customHeight="1" spans="1:5">
-      <c r="A58" s="8"/>
-      <c r="B58" s="11" t="s">
+      <c r="A58" s="12"/>
+      <c r="B58" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
     </row>
     <row r="59" ht="27" customHeight="1" spans="1:5">
-      <c r="A59" s="8"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="11" t="s">
+      <c r="A59" s="12"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
     </row>
     <row r="60" ht="27" customHeight="1" spans="1:5">
-      <c r="A60" s="8"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="11" t="s">
+      <c r="A60" s="12"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
     </row>
     <row r="61" ht="27" customHeight="1" spans="1:5">
-      <c r="A61" s="8"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="11" t="s">
+      <c r="A61" s="12"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
     </row>
     <row r="62" ht="27" customHeight="1" spans="1:5">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="12" t="s">
+      <c r="C62" s="17"/>
+      <c r="D62" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E62" s="12"/>
+      <c r="E62" s="16"/>
     </row>
     <row r="63" ht="27" customHeight="1" spans="1:5">
-      <c r="A63" s="12"/>
-      <c r="B63" s="13" t="s">
+      <c r="A63" s="16"/>
+      <c r="B63" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="12" t="s">
+      <c r="C63" s="17"/>
+      <c r="D63" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E63" s="12"/>
+      <c r="E63" s="16"/>
     </row>
     <row r="64" ht="27" customHeight="1" spans="1:5">
-      <c r="A64" s="12"/>
-      <c r="B64" s="13" t="s">
+      <c r="A64" s="16"/>
+      <c r="B64" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="12" t="s">
+      <c r="C64" s="17"/>
+      <c r="D64" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E64" s="12"/>
+      <c r="E64" s="16"/>
     </row>
     <row r="65" ht="27" customHeight="1" spans="1:5">
-      <c r="A65" s="12"/>
-      <c r="B65" s="13" t="s">
+      <c r="A65" s="16"/>
+      <c r="B65" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="12" t="s">
+      <c r="C65" s="17"/>
+      <c r="D65" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E65" s="12"/>
+      <c r="E65" s="16"/>
     </row>
     <row r="66" ht="27" customHeight="1" spans="1:5">
-      <c r="A66" s="12"/>
-      <c r="B66" s="13" t="s">
+      <c r="A66" s="16"/>
+      <c r="B66" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="12" t="s">
+      <c r="C66" s="17"/>
+      <c r="D66" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E66" s="12"/>
+      <c r="E66" s="16"/>
     </row>
     <row r="67" ht="27" customHeight="1" spans="1:5">
-      <c r="A67" s="12"/>
-      <c r="B67" s="13" t="s">
+      <c r="A67" s="16"/>
+      <c r="B67" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="12" t="s">
+      <c r="C67" s="17"/>
+      <c r="D67" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="E67" s="12"/>
+      <c r="E67" s="16"/>
     </row>
     <row r="68" ht="27" customHeight="1" spans="1:5">
-      <c r="A68" s="12"/>
-      <c r="B68" s="13" t="s">
+      <c r="A68" s="16"/>
+      <c r="B68" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="12" t="s">
+      <c r="C68" s="17"/>
+      <c r="D68" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E68" s="12"/>
+      <c r="E68" s="16"/>
     </row>
     <row r="69" ht="27" customHeight="1" spans="1:5">
-      <c r="A69" s="12"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13" t="s">
+      <c r="A69" s="16"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="D69" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E69" s="12" t="s">
+      <c r="E69" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="70" ht="27" customHeight="1" spans="1:5">
-      <c r="A70" s="12"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13" t="s">
+      <c r="A70" s="16"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="D70" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E70" s="12"/>
+      <c r="E70" s="16"/>
     </row>
     <row r="71" ht="27" customHeight="1" spans="1:5">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13" t="s">
+      <c r="C71" s="17"/>
+      <c r="D71" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E71" s="12" t="s">
+      <c r="E71" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="72" ht="27" customHeight="1" spans="1:5">
-      <c r="A72" s="12"/>
-      <c r="B72" s="14" t="s">
+      <c r="A72" s="16"/>
+      <c r="B72" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13" t="s">
+      <c r="C72" s="17"/>
+      <c r="D72" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E72" s="12"/>
+      <c r="E72" s="16"/>
     </row>
     <row r="73" ht="27" customHeight="1" spans="1:5">
-      <c r="A73" s="12"/>
-      <c r="B73" s="14" t="s">
+      <c r="A73" s="16"/>
+      <c r="B73" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13" t="s">
+      <c r="C73" s="17"/>
+      <c r="D73" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E73" s="12"/>
+      <c r="E73" s="16"/>
     </row>
     <row r="74" ht="27" customHeight="1" spans="1:5">
-      <c r="A74" s="12"/>
-      <c r="B74" s="13" t="s">
+      <c r="A74" s="16"/>
+      <c r="B74" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13" t="s">
+      <c r="C74" s="17"/>
+      <c r="D74" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E74" s="12"/>
+      <c r="E74" s="16"/>
     </row>
     <row r="75" ht="27" customHeight="1" spans="1:5">
-      <c r="A75" s="12"/>
-      <c r="B75" s="14" t="s">
+      <c r="A75" s="16"/>
+      <c r="B75" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13" t="s">
+      <c r="C75" s="17"/>
+      <c r="D75" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="E75" s="17" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="76" ht="27" customHeight="1" spans="1:5">
-      <c r="A76" s="12"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="13" t="s">
+      <c r="A76" s="16"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D76" s="12" t="s">
+      <c r="D76" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E76" s="12"/>
+      <c r="E76" s="16"/>
     </row>
     <row r="77" ht="27" customHeight="1" spans="1:5">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17" t="s">
+      <c r="C77" s="21"/>
+      <c r="D77" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E77" s="17"/>
+      <c r="E77" s="21"/>
     </row>
     <row r="78" ht="27" customHeight="1" spans="1:5">
-      <c r="A78" s="15"/>
-      <c r="B78" s="16" t="s">
+      <c r="A78" s="19"/>
+      <c r="B78" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17" t="s">
+      <c r="C78" s="21"/>
+      <c r="D78" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="E78" s="17"/>
+      <c r="E78" s="21"/>
     </row>
     <row r="79" ht="27" customHeight="1" spans="1:5">
-      <c r="A79" s="15"/>
-      <c r="B79" s="16" t="s">
+      <c r="A79" s="19"/>
+      <c r="B79" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17" t="s">
+      <c r="C79" s="21"/>
+      <c r="D79" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E79" s="17" t="s">
+      <c r="E79" s="21" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="80" ht="27" customHeight="1" spans="1:5">
-      <c r="A80" s="15"/>
-      <c r="B80" s="16" t="s">
+      <c r="A80" s="19"/>
+      <c r="B80" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17" t="s">
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="81" ht="27" customHeight="1" spans="1:5">
-      <c r="A81" s="15"/>
-      <c r="B81" s="16" t="s">
+      <c r="A81" s="19"/>
+      <c r="B81" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17" t="s">
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="82" ht="27" customHeight="1" spans="1:5">
-      <c r="A82" s="15"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16" t="s">
+      <c r="A82" s="19"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D82" s="17" t="s">
+      <c r="D82" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="E82" s="18" t="s">
+      <c r="E82" s="22" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="83" ht="27" customHeight="1" spans="1:5">
-      <c r="A83" s="15"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16" t="s">
+      <c r="A83" s="19"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D83" s="17" t="s">
+      <c r="D83" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E83" s="18"/>
+      <c r="E83" s="22"/>
     </row>
     <row r="84" ht="27" customHeight="1" spans="1:5">
-      <c r="A84" s="15"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="17" t="s">
+      <c r="A84" s="19"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D84" s="15" t="s">
+      <c r="D84" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="E84" s="15"/>
+      <c r="E84" s="19"/>
     </row>
     <row r="85" ht="27" customHeight="1" spans="1:5">
-      <c r="A85" s="15"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="17" t="s">
+      <c r="A85" s="19"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="15" t="s">
+      <c r="D85" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E85" s="15" t="s">
+      <c r="E85" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="86" ht="27" customHeight="1" spans="1:5">
-      <c r="A86" s="15"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="17" t="s">
+      <c r="A86" s="19"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="15" t="s">
+      <c r="D86" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E86" s="15"/>
+      <c r="E86" s="19"/>
     </row>
     <row r="87" ht="27" customHeight="1" spans="1:5">
-      <c r="A87" s="15"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="17" t="s">
+      <c r="A87" s="19"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D87" s="15" t="s">
+      <c r="D87" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="15"/>
+      <c r="E87" s="19"/>
     </row>
     <row r="88" ht="27" customHeight="1" spans="1:5">
-      <c r="A88" s="15"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="17" t="s">
+      <c r="A88" s="19"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D88" s="19" t="s">
+      <c r="D88" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E88" s="15" t="s">
+      <c r="E88" s="19" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="89" ht="27" customHeight="1" spans="1:5">
-      <c r="A89" s="15"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="17" t="s">
+      <c r="A89" s="19"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D89" s="19" t="s">
+      <c r="D89" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E89" s="15"/>
+      <c r="E89" s="19"/>
     </row>
     <row r="90" ht="27" customHeight="1" spans="1:5">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C90" s="17"/>
-      <c r="D90" s="15" t="s">
+      <c r="C90" s="21"/>
+      <c r="D90" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="E90" s="15"/>
+      <c r="E90" s="19"/>
     </row>
     <row r="91" ht="27" customHeight="1" spans="1:5">
-      <c r="A91" s="15"/>
-      <c r="B91" s="16" t="s">
+      <c r="A91" s="19"/>
+      <c r="B91" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C91" s="17"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
     </row>
     <row r="92" ht="27" customHeight="1" spans="1:5">
-      <c r="A92" s="15"/>
-      <c r="B92" s="16" t="s">
+      <c r="A92" s="19"/>
+      <c r="B92" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C92" s="17"/>
-      <c r="D92" s="15" t="s">
+      <c r="C92" s="21"/>
+      <c r="D92" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="E92" s="15"/>
+      <c r="E92" s="19"/>
     </row>
     <row r="93" ht="27" customHeight="1" spans="1:5">
-      <c r="A93" s="15"/>
-      <c r="B93" s="16"/>
-      <c r="C93" s="17" t="s">
+      <c r="A93" s="19"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D93" s="15" t="s">
+      <c r="D93" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="E93" s="15"/>
+      <c r="E93" s="19"/>
     </row>
     <row r="94" ht="27" customHeight="1" spans="1:5">
-      <c r="A94" s="20" t="s">
+      <c r="A94" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="B94" s="21" t="s">
+      <c r="B94" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="C94" s="22"/>
-      <c r="D94" s="20" t="s">
+      <c r="C94" s="26"/>
+      <c r="D94" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="E94" s="20"/>
+      <c r="E94" s="24"/>
     </row>
     <row r="95" ht="27" customHeight="1" spans="1:5">
-      <c r="A95" s="20"/>
-      <c r="B95" s="21" t="s">
+      <c r="A95" s="24"/>
+      <c r="B95" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C95" s="22"/>
-      <c r="D95" s="20" t="s">
+      <c r="C95" s="26"/>
+      <c r="D95" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="E95" s="20"/>
+      <c r="E95" s="24"/>
     </row>
     <row r="96" ht="27" customHeight="1" spans="1:5">
-      <c r="A96" s="20"/>
-      <c r="B96" s="21" t="s">
+      <c r="A96" s="24"/>
+      <c r="B96" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C96" s="22"/>
-      <c r="D96" s="20" t="s">
+      <c r="C96" s="26"/>
+      <c r="D96" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E96" s="20"/>
+      <c r="E96" s="24"/>
     </row>
     <row r="97" ht="27" customHeight="1" spans="1:5">
-      <c r="A97" s="20"/>
-      <c r="B97" s="21" t="s">
+      <c r="A97" s="24"/>
+      <c r="B97" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="C97" s="22"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
     </row>
     <row r="98" ht="27" customHeight="1" spans="1:5">
-      <c r="A98" s="20"/>
-      <c r="B98" s="21"/>
-      <c r="C98" s="21" t="s">
+      <c r="A98" s="24"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D98" s="20" t="s">
+      <c r="D98" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="E98" s="20"/>
+      <c r="E98" s="24"/>
     </row>
     <row r="99" ht="27" customHeight="1" spans="1:5">
-      <c r="A99" s="20" t="s">
+      <c r="A99" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="B99" s="21" t="s">
+      <c r="B99" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C99" s="22"/>
-      <c r="D99" s="20" t="s">
+      <c r="C99" s="26"/>
+      <c r="D99" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E99" s="20"/>
+      <c r="E99" s="24"/>
     </row>
     <row r="100" ht="27" customHeight="1" spans="1:5">
-      <c r="A100" s="20"/>
-      <c r="B100" s="21"/>
-      <c r="C100" s="22" t="s">
+      <c r="A100" s="24"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="D100" s="20" t="s">
+      <c r="D100" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E100" s="20"/>
+      <c r="E100" s="24"/>
     </row>
     <row r="101" ht="27" customHeight="1"/>
     <row r="102" ht="27" customHeight="1"/>
@@ -2677,4 +3395,2112 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P148"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="56.875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="21.25" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="17" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="21.625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="11.125" style="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:16">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:16">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:16">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:16">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:16">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:16">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:16">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A13" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A30" s="2"/>
+      <c r="B30" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A31" s="2"/>
+      <c r="B31" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A32" s="2"/>
+      <c r="B32" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A33" s="2"/>
+      <c r="B33" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A34" s="2"/>
+      <c r="B34" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A35" s="2"/>
+      <c r="B35" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A37" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" customHeight="1" spans="2:12">
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" customHeight="1" spans="2:5">
+      <c r="B39" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B40" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B41" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" customHeight="1" spans="2:3">
+      <c r="B42" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B43" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B44" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" customHeight="1" spans="2:3">
+      <c r="B45" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" customHeight="1" spans="2:3">
+      <c r="B46" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B47" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B48" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B49" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" customHeight="1" spans="2:5">
+      <c r="B50" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" customHeight="1" spans="2:5">
+      <c r="B51" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B52" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B53" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" customHeight="1" spans="2:3">
+      <c r="B54" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B55" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B56" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" customHeight="1" spans="2:3">
+      <c r="B57" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" customHeight="1" spans="2:3">
+      <c r="B58" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B59" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B60" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B61" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="2:3">
+      <c r="B63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="2:5">
+      <c r="B64" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="2:5">
+      <c r="B65" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="2:4">
+      <c r="B66" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="2:4">
+      <c r="B67" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="2:4">
+      <c r="B68" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="2:4">
+      <c r="B69" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="2:5">
+      <c r="B70" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="2:4">
+      <c r="B71" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="2:4">
+      <c r="B72" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="2:4">
+      <c r="B73" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="2:4">
+      <c r="B74" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="2:5">
+      <c r="B75" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="2:5">
+      <c r="B76" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="2:4">
+      <c r="B77" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="2:5">
+      <c r="B78" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="2:3">
+      <c r="B79" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="2:4">
+      <c r="B80" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="2:4">
+      <c r="B81" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="2:3">
+      <c r="B82" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="2:3">
+      <c r="B83" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="2:4">
+      <c r="B84" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="2:4">
+      <c r="B85" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="2:4">
+      <c r="B86" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="2:4">
+      <c r="B87" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="2:4">
+      <c r="B88" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:5">
+      <c r="A89" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:5">
+      <c r="A90" s="4"/>
+      <c r="B90" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="1:5">
+      <c r="A91" s="4"/>
+      <c r="B91" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:5">
+      <c r="A92" s="4"/>
+      <c r="B92" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:5">
+      <c r="A93" s="4"/>
+      <c r="B93" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:5">
+      <c r="A94" s="4"/>
+      <c r="B94" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="1:5">
+      <c r="A95" s="4"/>
+      <c r="B95" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:5">
+      <c r="A96" s="4"/>
+      <c r="B96" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:4">
+      <c r="A97" s="4"/>
+      <c r="B97" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:5">
+      <c r="A98" s="4"/>
+      <c r="B98" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:5">
+      <c r="A99" s="4"/>
+      <c r="B99" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:5">
+      <c r="A100" s="4"/>
+      <c r="B100" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:5">
+      <c r="A101" s="4"/>
+      <c r="B101" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:5">
+      <c r="A102" s="4"/>
+      <c r="B102" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:3">
+      <c r="A103" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="2:3">
+      <c r="B104" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="2:5">
+      <c r="B105" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="2:5">
+      <c r="B106" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="2:5">
+      <c r="B107" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="2:5">
+      <c r="B108" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="2:5">
+      <c r="B109" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="2:5">
+      <c r="B110" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="2:5">
+      <c r="B111" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="2:3">
+      <c r="B112" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="2:5">
+      <c r="B113" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="1:3">
+      <c r="A114" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="2:3">
+      <c r="B115" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="2:5">
+      <c r="B116" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="2:5">
+      <c r="B117" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="2:5">
+      <c r="B118" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E118" s="4"/>
+    </row>
+    <row r="119" customHeight="1" spans="2:5">
+      <c r="B119" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E119" s="4"/>
+    </row>
+    <row r="120" customHeight="1" spans="2:5">
+      <c r="B120" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E120" s="4"/>
+    </row>
+    <row r="121" customHeight="1" spans="2:5">
+      <c r="B121" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E121" s="4"/>
+    </row>
+    <row r="122" customHeight="1" spans="2:5">
+      <c r="B122" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E122" s="4"/>
+    </row>
+    <row r="123" customHeight="1" spans="2:5">
+      <c r="B123" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E123" s="4"/>
+    </row>
+    <row r="124" customHeight="1" spans="2:5">
+      <c r="B124" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E124" s="4"/>
+    </row>
+    <row r="125" customHeight="1" spans="2:5">
+      <c r="B125" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E125" s="4"/>
+    </row>
+    <row r="126" customHeight="1" spans="2:5">
+      <c r="B126" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="127" customHeight="1" spans="2:5">
+      <c r="B127" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="128" customHeight="1" spans="2:3">
+      <c r="B128" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="129" customHeight="1" spans="2:5">
+      <c r="B129" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="2:5">
+      <c r="B130" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="131" customHeight="1" spans="2:6">
+      <c r="B131" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E131" s="1"/>
+      <c r="F131" s="4"/>
+    </row>
+    <row r="132" customHeight="1" spans="2:6">
+      <c r="B132" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E132" s="1"/>
+      <c r="F132" s="4"/>
+    </row>
+    <row r="133" customHeight="1" spans="2:6">
+      <c r="B133" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E133" s="1"/>
+      <c r="F133" s="4"/>
+    </row>
+    <row r="134" customHeight="1" spans="2:5">
+      <c r="B134" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="2:5">
+      <c r="B135" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E135" s="4"/>
+    </row>
+    <row r="136" customHeight="1" spans="2:5">
+      <c r="B136" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E136" s="4"/>
+    </row>
+    <row r="137" customHeight="1" spans="1:3">
+      <c r="A137" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="2:3">
+      <c r="B138" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="2:5">
+      <c r="B139" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="2:4">
+      <c r="B140" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="2:5">
+      <c r="B141" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="2:4">
+      <c r="B142" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="2:5">
+      <c r="B143" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="144" customHeight="1" spans="2:5">
+      <c r="B144" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="2:5">
+      <c r="B145" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="146" customHeight="1" spans="2:4">
+      <c r="B146" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="2:5">
+      <c r="B147" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="2:5">
+      <c r="B148" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A36"/>
+    <mergeCell ref="A37:A61"/>
+    <mergeCell ref="A62:A88"/>
+    <mergeCell ref="A89:A102"/>
+    <mergeCell ref="A103:A113"/>
+    <mergeCell ref="A114:A136"/>
+    <mergeCell ref="A137:A148"/>
+    <mergeCell ref="E39:E49"/>
+    <mergeCell ref="E51:E61"/>
+    <mergeCell ref="E65:E69"/>
+    <mergeCell ref="E70:E74"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="E78:E88"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E117:E125"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="E134:E136"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="E145:E146"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/DOC/IO.xlsx
+++ b/DOC/IO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="379">
   <si>
     <t>I</t>
   </si>
@@ -1064,6 +1064,18 @@
     <t>jmp_num2_i</t>
   </si>
   <si>
+    <t>pc_pred_i</t>
+  </si>
+  <si>
+    <t>the pc of the instruction to be fetched, used to branch prediction</t>
+  </si>
+  <si>
+    <t>pc_instr_i</t>
+  </si>
+  <si>
+    <t>the pc from decoder.v,used to store in branch target buffer</t>
+  </si>
+  <si>
     <t>used to judge the branch instruction</t>
   </si>
   <si>
@@ -1098,6 +1110,48 @@
   </si>
   <si>
     <t>to control the hold of pipeline</t>
+  </si>
+  <si>
+    <t>btb_ctrl.v</t>
+  </si>
+  <si>
+    <t>pc_i</t>
+  </si>
+  <si>
+    <t>the pc of the instruction to be fetched</t>
+  </si>
+  <si>
+    <t>pc_jmp_i</t>
+  </si>
+  <si>
+    <t>the pc of the jump instruction, to be saved if prediction error and jmp_en</t>
+  </si>
+  <si>
+    <t>target_pc_i</t>
+  </si>
+  <si>
+    <t>the target of the jump instruction, to be saved if prediction error and jmp_en</t>
+  </si>
+  <si>
+    <t>jmp_en_i</t>
+  </si>
+  <si>
+    <t>the instruction jmp result</t>
+  </si>
+  <si>
+    <t>jmp_prediction_o</t>
+  </si>
+  <si>
+    <t>the prediction jmp result</t>
+  </si>
+  <si>
+    <t>target_pc_o</t>
+  </si>
+  <si>
+    <t>prediction_error_o</t>
+  </si>
+  <si>
+    <t>will be high if the jmp_en or jmp_target is different from prediction</t>
   </si>
 </sst>
 </file>
@@ -1105,10 +1159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1131,53 +1185,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1192,14 +1201,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1207,6 +1224,53 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1221,18 +1285,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1244,25 +1300,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1270,6 +1310,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1320,7 +1374,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1332,7 +1398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1344,13 +1410,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1362,13 +1464,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1380,115 +1542,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1500,7 +1554,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1531,11 +1585,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1555,17 +1622,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1594,30 +1672,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1634,10 +1688,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1646,142 +1700,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2186,1129 +2237,1129 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="39.875" customWidth="1"/>
     <col min="5" max="5" width="42.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="1:5">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:5">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" ht="26" customHeight="1" spans="1:5">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:5">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:5">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" ht="27" customHeight="1" spans="1:5">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:5">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="1:5">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:5">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" ht="27" customHeight="1" spans="1:5">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" ht="26" customHeight="1" spans="1:5">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" ht="27" customHeight="1" spans="1:5">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" ht="27" customHeight="1" spans="1:5">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" ht="27" customHeight="1" spans="1:5">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" ht="26" customHeight="1" spans="1:5">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="8" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" ht="27" customHeight="1" spans="1:5">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" ht="26" customHeight="1" spans="1:5">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="10" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" ht="27" customHeight="1" spans="1:5">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="10" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" ht="26" customHeight="1" spans="1:5">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="10" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" ht="27" customHeight="1" spans="1:5">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="10" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" ht="27" customHeight="1" spans="1:5">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="10" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="10"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" ht="27" customHeight="1" spans="1:5">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="10" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="10"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" ht="27" customHeight="1" spans="1:5">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="10" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="10"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" ht="27" customHeight="1" spans="1:5">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="10" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="10"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" ht="27" customHeight="1" spans="1:5">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="10" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="10"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" ht="27" customHeight="1" spans="1:5">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" ht="27" customHeight="1" spans="1:5">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12" t="s">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="12"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28" ht="27" customHeight="1" spans="1:5">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12" t="s">
+      <c r="C28" s="11"/>
+      <c r="D28" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="12"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" ht="27" customHeight="1" spans="1:5">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="12"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" ht="27" customHeight="1" spans="1:5">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" ht="27" customHeight="1" spans="1:5">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="12" t="s">
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="12"/>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" ht="27" customHeight="1" spans="1:5">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="12" t="s">
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" ht="27" customHeight="1" spans="1:5">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="12" t="s">
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="12"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" ht="27" customHeight="1" spans="1:5">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="12" t="s">
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="12"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" ht="27" customHeight="1" spans="1:5">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="12" t="s">
+      <c r="C35" s="14"/>
+      <c r="D35" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="12"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" ht="27" customHeight="1" spans="1:5">
-      <c r="A36" s="12"/>
-      <c r="B36" s="14" t="s">
+      <c r="A36" s="11"/>
+      <c r="B36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" ht="27" customHeight="1" spans="1:5">
-      <c r="A37" s="12"/>
-      <c r="B37" s="14" t="s">
+      <c r="A37" s="11"/>
+      <c r="B37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="12" t="s">
+      <c r="C37" s="14"/>
+      <c r="D37" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="12"/>
+      <c r="E37" s="11"/>
     </row>
     <row r="38" ht="27" customHeight="1" spans="1:5">
-      <c r="A38" s="12"/>
-      <c r="B38" s="14" t="s">
+      <c r="A38" s="11"/>
+      <c r="B38" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="12" t="s">
+      <c r="C38" s="14"/>
+      <c r="D38" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="12"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" ht="27" customHeight="1" spans="1:5">
-      <c r="A39" s="12"/>
-      <c r="B39" s="14" t="s">
+      <c r="A39" s="11"/>
+      <c r="B39" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="12" t="s">
+      <c r="C39" s="14"/>
+      <c r="D39" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="12"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="40" ht="27" customHeight="1" spans="1:5">
-      <c r="A40" s="12"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="15" t="s">
+      <c r="A40" s="11"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="12"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" ht="27" customHeight="1" spans="1:5">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="12" t="s">
+      <c r="C41" s="14"/>
+      <c r="D41" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="42" ht="27" customHeight="1" spans="1:5">
-      <c r="A42" s="12"/>
-      <c r="B42" s="15" t="s">
+      <c r="A42" s="11"/>
+      <c r="B42" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15" t="s">
+      <c r="C42" s="14"/>
+      <c r="D42" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="14" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="43" ht="27" customHeight="1" spans="1:5">
-      <c r="A43" s="12"/>
-      <c r="B43" s="15" t="s">
+      <c r="A43" s="11"/>
+      <c r="B43" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="14"/>
+      <c r="D43" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="44" ht="27" customHeight="1" spans="1:5">
-      <c r="A44" s="12"/>
-      <c r="B44" s="15" t="s">
+      <c r="A44" s="11"/>
+      <c r="B44" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="14"/>
+      <c r="D44" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="12"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" ht="27" customHeight="1" spans="1:5">
-      <c r="A45" s="12"/>
-      <c r="B45" s="15" t="s">
+      <c r="A45" s="11"/>
+      <c r="B45" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15" t="s">
+      <c r="C45" s="14"/>
+      <c r="D45" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="12"/>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" ht="27" customHeight="1" spans="1:5">
-      <c r="A46" s="12"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="15" t="s">
+      <c r="A46" s="11"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="47" ht="27" customHeight="1" spans="1:5">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15" t="s">
+      <c r="C47" s="14"/>
+      <c r="D47" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="E47" s="14" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="48" ht="27" customHeight="1" spans="1:5">
-      <c r="A48" s="12"/>
-      <c r="B48" s="14" t="s">
+      <c r="A48" s="11"/>
+      <c r="B48" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15" t="s">
+      <c r="C48" s="14"/>
+      <c r="D48" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E48" s="15" t="s">
+      <c r="E48" s="14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="49" ht="27" customHeight="1" spans="1:5">
-      <c r="A49" s="12"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="15" t="s">
+      <c r="A49" s="11"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E49" s="12"/>
+      <c r="E49" s="11"/>
     </row>
     <row r="50" ht="27" customHeight="1" spans="1:5">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="12" t="s">
+      <c r="C50" s="14"/>
+      <c r="D50" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E50" s="12"/>
+      <c r="E50" s="11"/>
     </row>
     <row r="51" ht="27" customHeight="1" spans="1:5">
-      <c r="A51" s="12"/>
-      <c r="B51" s="15" t="s">
+      <c r="A51" s="11"/>
+      <c r="B51" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
     </row>
     <row r="52" ht="27" customHeight="1" spans="1:5">
-      <c r="A52" s="12"/>
-      <c r="B52" s="15" t="s">
+      <c r="A52" s="11"/>
+      <c r="B52" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
     </row>
     <row r="53" ht="27" customHeight="1" spans="1:5">
-      <c r="A53" s="12"/>
-      <c r="B53" s="15" t="s">
+      <c r="A53" s="11"/>
+      <c r="B53" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
     </row>
     <row r="54" ht="27" customHeight="1" spans="1:5">
-      <c r="A54" s="12"/>
-      <c r="B54" s="15" t="s">
+      <c r="A54" s="11"/>
+      <c r="B54" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
     </row>
     <row r="55" ht="27" customHeight="1" spans="1:5">
-      <c r="A55" s="12"/>
-      <c r="B55" s="15" t="s">
+      <c r="A55" s="11"/>
+      <c r="B55" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
     </row>
     <row r="56" ht="27" customHeight="1" spans="1:5">
-      <c r="A56" s="12"/>
-      <c r="B56" s="15" t="s">
+      <c r="A56" s="11"/>
+      <c r="B56" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
     </row>
     <row r="57" ht="27" customHeight="1" spans="1:5">
-      <c r="A57" s="12"/>
-      <c r="B57" s="15" t="s">
+      <c r="A57" s="11"/>
+      <c r="B57" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
     </row>
     <row r="58" ht="27" customHeight="1" spans="1:5">
-      <c r="A58" s="12"/>
-      <c r="B58" s="15" t="s">
+      <c r="A58" s="11"/>
+      <c r="B58" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
     </row>
     <row r="59" ht="27" customHeight="1" spans="1:5">
-      <c r="A59" s="12"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="15" t="s">
+      <c r="A59" s="11"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
     </row>
     <row r="60" ht="27" customHeight="1" spans="1:5">
-      <c r="A60" s="12"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="15" t="s">
+      <c r="A60" s="11"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
     </row>
     <row r="61" ht="27" customHeight="1" spans="1:5">
-      <c r="A61" s="12"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="15" t="s">
+      <c r="A61" s="11"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
     </row>
     <row r="62" ht="27" customHeight="1" spans="1:5">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="17"/>
-      <c r="D62" s="16" t="s">
+      <c r="C62" s="16"/>
+      <c r="D62" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E62" s="16"/>
+      <c r="E62" s="15"/>
     </row>
     <row r="63" ht="27" customHeight="1" spans="1:5">
-      <c r="A63" s="16"/>
-      <c r="B63" s="17" t="s">
+      <c r="A63" s="15"/>
+      <c r="B63" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="17"/>
-      <c r="D63" s="16" t="s">
+      <c r="C63" s="16"/>
+      <c r="D63" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E63" s="16"/>
+      <c r="E63" s="15"/>
     </row>
     <row r="64" ht="27" customHeight="1" spans="1:5">
-      <c r="A64" s="16"/>
-      <c r="B64" s="17" t="s">
+      <c r="A64" s="15"/>
+      <c r="B64" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C64" s="17"/>
-      <c r="D64" s="16" t="s">
+      <c r="C64" s="16"/>
+      <c r="D64" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E64" s="16"/>
+      <c r="E64" s="15"/>
     </row>
     <row r="65" ht="27" customHeight="1" spans="1:5">
-      <c r="A65" s="16"/>
-      <c r="B65" s="17" t="s">
+      <c r="A65" s="15"/>
+      <c r="B65" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C65" s="17"/>
-      <c r="D65" s="16" t="s">
+      <c r="C65" s="16"/>
+      <c r="D65" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E65" s="16"/>
+      <c r="E65" s="15"/>
     </row>
     <row r="66" ht="27" customHeight="1" spans="1:5">
-      <c r="A66" s="16"/>
-      <c r="B66" s="17" t="s">
+      <c r="A66" s="15"/>
+      <c r="B66" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C66" s="17"/>
-      <c r="D66" s="16" t="s">
+      <c r="C66" s="16"/>
+      <c r="D66" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E66" s="16"/>
+      <c r="E66" s="15"/>
     </row>
     <row r="67" ht="27" customHeight="1" spans="1:5">
-      <c r="A67" s="16"/>
-      <c r="B67" s="17" t="s">
+      <c r="A67" s="15"/>
+      <c r="B67" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C67" s="17"/>
-      <c r="D67" s="16" t="s">
+      <c r="C67" s="16"/>
+      <c r="D67" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E67" s="16"/>
+      <c r="E67" s="15"/>
     </row>
     <row r="68" ht="27" customHeight="1" spans="1:5">
-      <c r="A68" s="16"/>
-      <c r="B68" s="17" t="s">
+      <c r="A68" s="15"/>
+      <c r="B68" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C68" s="17"/>
-      <c r="D68" s="16" t="s">
+      <c r="C68" s="16"/>
+      <c r="D68" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E68" s="16"/>
+      <c r="E68" s="15"/>
     </row>
     <row r="69" ht="27" customHeight="1" spans="1:5">
-      <c r="A69" s="16"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17" t="s">
+      <c r="A69" s="15"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="D69" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="15" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="70" ht="27" customHeight="1" spans="1:5">
-      <c r="A70" s="16"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17" t="s">
+      <c r="A70" s="15"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="D70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E70" s="16"/>
+      <c r="E70" s="15"/>
     </row>
     <row r="71" ht="27" customHeight="1" spans="1:5">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17" t="s">
+      <c r="C71" s="16"/>
+      <c r="D71" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="15" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="72" ht="27" customHeight="1" spans="1:5">
-      <c r="A72" s="16"/>
-      <c r="B72" s="18" t="s">
+      <c r="A72" s="15"/>
+      <c r="B72" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17" t="s">
+      <c r="C72" s="16"/>
+      <c r="D72" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="E72" s="16"/>
+      <c r="E72" s="15"/>
     </row>
     <row r="73" ht="27" customHeight="1" spans="1:5">
-      <c r="A73" s="16"/>
-      <c r="B73" s="18" t="s">
+      <c r="A73" s="15"/>
+      <c r="B73" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17" t="s">
+      <c r="C73" s="16"/>
+      <c r="D73" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="E73" s="16"/>
+      <c r="E73" s="15"/>
     </row>
     <row r="74" ht="27" customHeight="1" spans="1:5">
-      <c r="A74" s="16"/>
-      <c r="B74" s="17" t="s">
+      <c r="A74" s="15"/>
+      <c r="B74" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17" t="s">
+      <c r="C74" s="16"/>
+      <c r="D74" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E74" s="16"/>
+      <c r="E74" s="15"/>
     </row>
     <row r="75" ht="27" customHeight="1" spans="1:5">
-      <c r="A75" s="16"/>
-      <c r="B75" s="18" t="s">
+      <c r="A75" s="15"/>
+      <c r="B75" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17" t="s">
+      <c r="C75" s="16"/>
+      <c r="D75" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E75" s="17" t="s">
+      <c r="E75" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="76" ht="27" customHeight="1" spans="1:5">
-      <c r="A76" s="16"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="17" t="s">
+      <c r="A76" s="15"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D76" s="16" t="s">
+      <c r="D76" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E76" s="16"/>
+      <c r="E76" s="15"/>
     </row>
     <row r="77" ht="27" customHeight="1" spans="1:5">
-      <c r="A77" s="19" t="s">
+      <c r="A77" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21" t="s">
+      <c r="C77" s="20"/>
+      <c r="D77" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E77" s="21"/>
+      <c r="E77" s="20"/>
     </row>
     <row r="78" ht="27" customHeight="1" spans="1:5">
-      <c r="A78" s="19"/>
-      <c r="B78" s="20" t="s">
+      <c r="A78" s="18"/>
+      <c r="B78" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21" t="s">
+      <c r="C78" s="20"/>
+      <c r="D78" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E78" s="21"/>
+      <c r="E78" s="20"/>
     </row>
     <row r="79" ht="27" customHeight="1" spans="1:5">
-      <c r="A79" s="19"/>
-      <c r="B79" s="20" t="s">
+      <c r="A79" s="18"/>
+      <c r="B79" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21" t="s">
+      <c r="C79" s="20"/>
+      <c r="D79" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E79" s="21" t="s">
+      <c r="E79" s="20" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="80" ht="27" customHeight="1" spans="1:5">
-      <c r="A80" s="19"/>
-      <c r="B80" s="20" t="s">
+      <c r="A80" s="18"/>
+      <c r="B80" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21" t="s">
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="81" ht="27" customHeight="1" spans="1:5">
-      <c r="A81" s="19"/>
-      <c r="B81" s="20" t="s">
+      <c r="A81" s="18"/>
+      <c r="B81" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21" t="s">
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="82" ht="27" customHeight="1" spans="1:5">
-      <c r="A82" s="19"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="20" t="s">
+      <c r="A82" s="18"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D82" s="21" t="s">
+      <c r="D82" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="E82" s="22" t="s">
+      <c r="E82" s="21" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="83" ht="27" customHeight="1" spans="1:5">
-      <c r="A83" s="19"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="20" t="s">
+      <c r="A83" s="18"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D83" s="21" t="s">
+      <c r="D83" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="E83" s="22"/>
+      <c r="E83" s="21"/>
     </row>
     <row r="84" ht="27" customHeight="1" spans="1:5">
-      <c r="A84" s="19"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="21" t="s">
+      <c r="A84" s="18"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D84" s="19" t="s">
+      <c r="D84" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="E84" s="19"/>
+      <c r="E84" s="18"/>
     </row>
     <row r="85" ht="27" customHeight="1" spans="1:5">
-      <c r="A85" s="19"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="21" t="s">
+      <c r="A85" s="18"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="19" t="s">
+      <c r="D85" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E85" s="19" t="s">
+      <c r="E85" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="86" ht="27" customHeight="1" spans="1:5">
-      <c r="A86" s="19"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="21" t="s">
+      <c r="A86" s="18"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="19" t="s">
+      <c r="D86" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E86" s="19"/>
+      <c r="E86" s="18"/>
     </row>
     <row r="87" ht="27" customHeight="1" spans="1:5">
-      <c r="A87" s="19"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="21" t="s">
+      <c r="A87" s="18"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D87" s="19" t="s">
+      <c r="D87" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="19"/>
+      <c r="E87" s="18"/>
     </row>
     <row r="88" ht="27" customHeight="1" spans="1:5">
-      <c r="A88" s="19"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="21" t="s">
+      <c r="A88" s="18"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D88" s="23" t="s">
+      <c r="D88" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E88" s="19" t="s">
+      <c r="E88" s="18" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="89" ht="27" customHeight="1" spans="1:5">
-      <c r="A89" s="19"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="21" t="s">
+      <c r="A89" s="18"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D89" s="23" t="s">
+      <c r="D89" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E89" s="19"/>
+      <c r="E89" s="18"/>
     </row>
     <row r="90" ht="27" customHeight="1" spans="1:5">
-      <c r="A90" s="19" t="s">
+      <c r="A90" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="B90" s="20" t="s">
+      <c r="B90" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C90" s="21"/>
-      <c r="D90" s="19" t="s">
+      <c r="C90" s="20"/>
+      <c r="D90" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="E90" s="19"/>
+      <c r="E90" s="18"/>
     </row>
     <row r="91" ht="27" customHeight="1" spans="1:5">
-      <c r="A91" s="19"/>
-      <c r="B91" s="20" t="s">
+      <c r="A91" s="18"/>
+      <c r="B91" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C91" s="21"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
     </row>
     <row r="92" ht="27" customHeight="1" spans="1:5">
-      <c r="A92" s="19"/>
-      <c r="B92" s="20" t="s">
+      <c r="A92" s="18"/>
+      <c r="B92" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C92" s="21"/>
-      <c r="D92" s="19" t="s">
+      <c r="C92" s="20"/>
+      <c r="D92" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="E92" s="19"/>
+      <c r="E92" s="18"/>
     </row>
     <row r="93" ht="27" customHeight="1" spans="1:5">
-      <c r="A93" s="19"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="21" t="s">
+      <c r="A93" s="18"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D93" s="19" t="s">
+      <c r="D93" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="E93" s="19"/>
+      <c r="E93" s="18"/>
     </row>
     <row r="94" ht="27" customHeight="1" spans="1:5">
-      <c r="A94" s="24" t="s">
+      <c r="A94" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B94" s="25" t="s">
+      <c r="B94" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C94" s="26"/>
-      <c r="D94" s="24" t="s">
+      <c r="C94" s="25"/>
+      <c r="D94" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E94" s="24"/>
+      <c r="E94" s="23"/>
     </row>
     <row r="95" ht="27" customHeight="1" spans="1:5">
-      <c r="A95" s="24"/>
-      <c r="B95" s="25" t="s">
+      <c r="A95" s="23"/>
+      <c r="B95" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C95" s="26"/>
-      <c r="D95" s="24" t="s">
+      <c r="C95" s="25"/>
+      <c r="D95" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E95" s="24"/>
+      <c r="E95" s="23"/>
     </row>
     <row r="96" ht="27" customHeight="1" spans="1:5">
-      <c r="A96" s="24"/>
-      <c r="B96" s="25" t="s">
+      <c r="A96" s="23"/>
+      <c r="B96" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C96" s="26"/>
-      <c r="D96" s="24" t="s">
+      <c r="C96" s="25"/>
+      <c r="D96" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="E96" s="24"/>
+      <c r="E96" s="23"/>
     </row>
     <row r="97" ht="27" customHeight="1" spans="1:5">
-      <c r="A97" s="24"/>
-      <c r="B97" s="25" t="s">
+      <c r="A97" s="23"/>
+      <c r="B97" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C97" s="26"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
     </row>
     <row r="98" ht="27" customHeight="1" spans="1:5">
-      <c r="A98" s="24"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="25" t="s">
+      <c r="A98" s="23"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D98" s="24" t="s">
+      <c r="D98" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="E98" s="24"/>
+      <c r="E98" s="23"/>
     </row>
     <row r="99" ht="27" customHeight="1" spans="1:5">
-      <c r="A99" s="24" t="s">
+      <c r="A99" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B99" s="25" t="s">
+      <c r="B99" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C99" s="26"/>
-      <c r="D99" s="24" t="s">
+      <c r="C99" s="25"/>
+      <c r="D99" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E99" s="24"/>
+      <c r="E99" s="23"/>
     </row>
     <row r="100" ht="27" customHeight="1" spans="1:5">
-      <c r="A100" s="24"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="26" t="s">
+      <c r="A100" s="23"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="D100" s="24" t="s">
+      <c r="D100" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E100" s="24"/>
+      <c r="E100" s="23"/>
     </row>
     <row r="101" ht="27" customHeight="1"/>
     <row r="102" ht="27" customHeight="1"/>
@@ -3400,19 +3451,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P148"/>
+  <dimension ref="A1:P159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="E155" sqref="E155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="56.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="61.875" style="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="1"/>
     <col min="8" max="8" width="21.25" style="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="1"/>
@@ -3447,7 +3498,7 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3459,7 +3510,7 @@
       <c r="H2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>137</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -3469,8 +3520,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A3" s="2"/>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="2:16">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -3480,7 +3530,7 @@
       <c r="H3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>141</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -3489,10 +3539,9 @@
       <c r="L3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="P3" s="3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A4" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="2:16">
       <c r="B4" s="1" t="s">
         <v>144</v>
       </c>
@@ -3508,7 +3557,7 @@
       <c r="H4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>141</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -3517,10 +3566,9 @@
       <c r="L4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="P4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A5" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="2:16">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3533,7 +3581,7 @@
       <c r="H5" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>141</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -3542,10 +3590,9 @@
       <c r="L5" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="P5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A6" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="2:16">
       <c r="B6" s="1" t="s">
         <v>154</v>
       </c>
@@ -3561,7 +3608,7 @@
       <c r="H6" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>158</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -3570,10 +3617,9 @@
       <c r="L6" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="P6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A7" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="2:9">
       <c r="B7" s="1" t="s">
         <v>161</v>
       </c>
@@ -3589,12 +3635,12 @@
       <c r="H7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3612,12 +3658,11 @@
       <c r="H8" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A9" s="2"/>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="2:9">
       <c r="B9" s="1" t="s">
         <v>169</v>
       </c>
@@ -3633,12 +3678,11 @@
       <c r="H9" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A10" s="2"/>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="2:16">
       <c r="B10" s="1" t="s">
         <v>172</v>
       </c>
@@ -3651,13 +3695,12 @@
       <c r="H10" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A11" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="2:16">
       <c r="B11" s="1" t="s">
         <v>176</v>
       </c>
@@ -3673,13 +3716,12 @@
       <c r="H11" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A12" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="2:16">
       <c r="B12" s="1" t="s">
         <v>179</v>
       </c>
@@ -3689,10 +3731,10 @@
       <c r="E12" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="P12" s="3"/>
+      <c r="P12" s="2"/>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3714,8 +3756,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A14" s="2"/>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="2:12">
       <c r="B14" s="1" t="s">
         <v>187</v>
       </c>
@@ -3741,8 +3782,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A15" s="2"/>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="2:12">
       <c r="B15" s="1" t="s">
         <v>191</v>
       </c>
@@ -3768,8 +3808,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A16" s="2"/>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="2:12">
       <c r="B16" s="1" t="s">
         <v>196</v>
       </c>
@@ -3795,8 +3834,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A17" s="2"/>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="2:12">
       <c r="B17" s="1" t="s">
         <v>200</v>
       </c>
@@ -3822,8 +3860,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A18" s="2"/>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="2:12">
       <c r="B18" s="1" t="s">
         <v>161</v>
       </c>
@@ -3849,8 +3886,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A19" s="2"/>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="2:12">
       <c r="B19" s="1" t="s">
         <v>209</v>
       </c>
@@ -3876,8 +3912,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A20" s="2"/>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="2:9">
       <c r="B20" s="1" t="s">
         <v>216</v>
       </c>
@@ -3897,8 +3932,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A21" s="2"/>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="2:9">
       <c r="B21" s="1" t="s">
         <v>220</v>
       </c>
@@ -3918,8 +3952,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A22" s="2"/>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="2:11">
       <c r="B22" s="1" t="s">
         <v>224</v>
       </c>
@@ -3936,8 +3969,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A23" s="2"/>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="2:12">
       <c r="B23" s="1" t="s">
         <v>228</v>
       </c>
@@ -3954,8 +3986,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A24" s="2"/>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="2:12">
       <c r="B24" s="1" t="s">
         <v>231</v>
       </c>
@@ -3972,8 +4003,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A25" s="2"/>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="2:12">
       <c r="B25" s="1" t="s">
         <v>234</v>
       </c>
@@ -3993,8 +4023,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A26" s="2"/>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="2:12">
       <c r="B26" s="1" t="s">
         <v>237</v>
       </c>
@@ -4014,8 +4043,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A27" s="2"/>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B27" s="1" t="s">
         <v>239</v>
       </c>
@@ -4029,8 +4057,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A28" s="2"/>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B28" s="1" t="s">
         <v>241</v>
       </c>
@@ -4044,8 +4071,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A29" s="2"/>
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B29" s="1" t="s">
         <v>242</v>
       </c>
@@ -4059,8 +4085,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A30" s="2"/>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B30" s="1" t="s">
         <v>245</v>
       </c>
@@ -4074,8 +4099,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A31" s="2"/>
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B31" s="1" t="s">
         <v>247</v>
       </c>
@@ -4089,8 +4113,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A32" s="2"/>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B32" s="1" t="s">
         <v>250</v>
       </c>
@@ -4104,8 +4127,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A33" s="2"/>
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B33" s="1" t="s">
         <v>252</v>
       </c>
@@ -4119,8 +4141,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A34" s="2"/>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B34" s="1" t="s">
         <v>254</v>
       </c>
@@ -4134,8 +4155,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A35" s="2"/>
+    <row r="35" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B35" s="1" t="s">
         <v>256</v>
       </c>
@@ -4146,8 +4166,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A36" s="2"/>
+    <row r="36" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B36" s="1" t="s">
         <v>258</v>
       </c>
@@ -4725,7 +4744,7 @@
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:5">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -4742,7 +4761,7 @@
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:5">
-      <c r="A90" s="4"/>
+      <c r="A90" s="3"/>
       <c r="B90" s="1" t="s">
         <v>220</v>
       </c>
@@ -4757,7 +4776,7 @@
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:5">
-      <c r="A91" s="4"/>
+      <c r="A91" s="3"/>
       <c r="B91" s="1" t="s">
         <v>245</v>
       </c>
@@ -4772,7 +4791,7 @@
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:5">
-      <c r="A92" s="4"/>
+      <c r="A92" s="3"/>
       <c r="B92" s="1" t="s">
         <v>247</v>
       </c>
@@ -4787,7 +4806,7 @@
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:5">
-      <c r="A93" s="4"/>
+      <c r="A93" s="3"/>
       <c r="B93" s="1" t="s">
         <v>228</v>
       </c>
@@ -4799,7 +4818,7 @@
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:5">
-      <c r="A94" s="4"/>
+      <c r="A94" s="3"/>
       <c r="B94" s="1" t="s">
         <v>231</v>
       </c>
@@ -4811,7 +4830,7 @@
       </c>
     </row>
     <row r="95" customHeight="1" spans="1:5">
-      <c r="A95" s="4"/>
+      <c r="A95" s="3"/>
       <c r="B95" s="1" t="s">
         <v>224</v>
       </c>
@@ -4826,7 +4845,7 @@
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:5">
-      <c r="A96" s="4"/>
+      <c r="A96" s="3"/>
       <c r="B96" s="1" t="s">
         <v>234</v>
       </c>
@@ -4841,7 +4860,7 @@
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:4">
-      <c r="A97" s="4"/>
+      <c r="A97" s="3"/>
       <c r="B97" s="1" t="s">
         <v>237</v>
       </c>
@@ -4853,7 +4872,7 @@
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:5">
-      <c r="A98" s="4"/>
+      <c r="A98" s="3"/>
       <c r="B98" s="1" t="s">
         <v>311</v>
       </c>
@@ -4868,7 +4887,7 @@
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:5">
-      <c r="A99" s="4"/>
+      <c r="A99" s="3"/>
       <c r="B99" s="1" t="s">
         <v>313</v>
       </c>
@@ -4883,7 +4902,7 @@
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:5">
-      <c r="A100" s="4"/>
+      <c r="A100" s="3"/>
       <c r="B100" s="1" t="s">
         <v>315</v>
       </c>
@@ -4898,7 +4917,7 @@
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:5">
-      <c r="A101" s="4"/>
+      <c r="A101" s="3"/>
       <c r="B101" s="1" t="s">
         <v>317</v>
       </c>
@@ -4913,7 +4932,7 @@
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:5">
-      <c r="A102" s="4"/>
+      <c r="A102" s="3"/>
       <c r="B102" s="1" t="s">
         <v>319</v>
       </c>
@@ -5100,7 +5119,7 @@
       <c r="D117" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E117" s="4" t="s">
+      <c r="E117" s="3" t="s">
         <v>335</v>
       </c>
     </row>
@@ -5114,7 +5133,7 @@
       <c r="D118" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E118" s="4"/>
+      <c r="E118" s="3"/>
     </row>
     <row r="119" customHeight="1" spans="2:5">
       <c r="B119" s="1" t="s">
@@ -5126,7 +5145,7 @@
       <c r="D119" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E119" s="4"/>
+      <c r="E119" s="3"/>
     </row>
     <row r="120" customHeight="1" spans="2:5">
       <c r="B120" s="1" t="s">
@@ -5138,7 +5157,7 @@
       <c r="D120" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E120" s="4"/>
+      <c r="E120" s="3"/>
     </row>
     <row r="121" customHeight="1" spans="2:5">
       <c r="B121" s="1" t="s">
@@ -5147,7 +5166,7 @@
       <c r="C121" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E121" s="4"/>
+      <c r="E121" s="3"/>
     </row>
     <row r="122" customHeight="1" spans="2:5">
       <c r="B122" s="1" t="s">
@@ -5156,7 +5175,7 @@
       <c r="C122" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E122" s="4"/>
+      <c r="E122" s="3"/>
     </row>
     <row r="123" customHeight="1" spans="2:5">
       <c r="B123" s="1" t="s">
@@ -5168,7 +5187,7 @@
       <c r="D123" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E123" s="4"/>
+      <c r="E123" s="3"/>
     </row>
     <row r="124" customHeight="1" spans="2:5">
       <c r="B124" s="1" t="s">
@@ -5180,7 +5199,7 @@
       <c r="D124" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E124" s="4"/>
+      <c r="E124" s="3"/>
     </row>
     <row r="125" customHeight="1" spans="2:5">
       <c r="B125" s="1" t="s">
@@ -5192,7 +5211,7 @@
       <c r="D125" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E125" s="4"/>
+      <c r="E125" s="3"/>
     </row>
     <row r="126" customHeight="1" spans="2:5">
       <c r="B126" s="1" t="s">
@@ -5265,8 +5284,7 @@
       <c r="D131" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E131" s="1"/>
-      <c r="F131" s="4"/>
+      <c r="F131" s="3"/>
     </row>
     <row r="132" customHeight="1" spans="2:6">
       <c r="B132" s="1" t="s">
@@ -5278,8 +5296,7 @@
       <c r="D132" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E132" s="1"/>
-      <c r="F132" s="4"/>
+      <c r="F132" s="3"/>
     </row>
     <row r="133" customHeight="1" spans="2:6">
       <c r="B133" s="1" t="s">
@@ -5291,8 +5308,7 @@
       <c r="D133" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E133" s="1"/>
-      <c r="F133" s="4"/>
+      <c r="F133" s="3"/>
     </row>
     <row r="134" customHeight="1" spans="2:5">
       <c r="B134" s="1" t="s">
@@ -5304,7 +5320,7 @@
       <c r="D134" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E134" s="4" t="s">
+      <c r="E134" s="3" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5318,7 +5334,7 @@
       <c r="D135" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E135" s="4"/>
+      <c r="E135" s="3"/>
     </row>
     <row r="136" customHeight="1" spans="2:5">
       <c r="B136" s="1" t="s">
@@ -5327,7 +5343,7 @@
       <c r="C136" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E136" s="4"/>
+      <c r="E136" s="3"/>
     </row>
     <row r="137" customHeight="1" spans="1:3">
       <c r="A137" s="1" t="s">
@@ -5375,53 +5391,55 @@
     </row>
     <row r="141" customHeight="1" spans="2:5">
       <c r="B141" s="1" t="s">
-        <v>262</v>
+        <v>349</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="142" customHeight="1" spans="2:4">
+        <v>155</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="2:5">
       <c r="B142" s="1" t="s">
-        <v>264</v>
+        <v>351</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>183</v>
+        <v>155</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="2:5">
       <c r="B143" s="1" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>243</v>
+        <v>183</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="144" customHeight="1" spans="2:5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="144" customHeight="1" spans="2:4">
       <c r="B144" s="1" t="s">
-        <v>352</v>
+        <v>264</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1" t="s">
-        <v>353</v>
+      <c r="D144" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="2:5">
@@ -5429,52 +5447,180 @@
         <v>354</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D145" s="1"/>
+        <v>135</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="E145" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="146" customHeight="1" spans="2:4">
+    <row r="146" customHeight="1" spans="2:5">
       <c r="B146" s="1" t="s">
         <v>356</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>155</v>
+        <v>135</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="2:5">
       <c r="B147" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D147" s="1"/>
       <c r="E147" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="148" customHeight="1" spans="2:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="2:4">
       <c r="B148" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D148" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="149" customHeight="1" spans="2:5">
+      <c r="B149" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="150" customHeight="1" spans="2:5">
+      <c r="B150" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E148" s="1" t="s">
-        <v>360</v>
+      <c r="E150" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="151" customHeight="1" spans="1:3">
+      <c r="A151" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="152" customHeight="1" spans="2:3">
+      <c r="B152" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="153" customHeight="1" spans="2:5">
+      <c r="B153" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="154" customHeight="1" spans="2:5">
+      <c r="B154" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="155" customHeight="1" spans="2:5">
+      <c r="B155" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="156" customHeight="1" spans="2:5">
+      <c r="B156" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="157" customHeight="1" spans="2:5">
+      <c r="B157" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="158" customHeight="1" spans="2:4">
+      <c r="B158" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="159" customHeight="1" spans="2:5">
+      <c r="B159" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="26">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A36"/>
@@ -5483,7 +5629,8 @@
     <mergeCell ref="A89:A102"/>
     <mergeCell ref="A103:A113"/>
     <mergeCell ref="A114:A136"/>
-    <mergeCell ref="A137:A148"/>
+    <mergeCell ref="A137:A150"/>
+    <mergeCell ref="A151:A159"/>
     <mergeCell ref="E39:E49"/>
     <mergeCell ref="E51:E61"/>
     <mergeCell ref="E65:E69"/>
@@ -5497,8 +5644,9 @@
     <mergeCell ref="E130:E133"/>
     <mergeCell ref="E134:E136"/>
     <mergeCell ref="E139:E140"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="E157:E158"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/DOC/IO.xlsx
+++ b/DOC/IO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="383">
   <si>
     <t>I</t>
   </si>
@@ -716,6 +716,12 @@
     <t>0~shift right logic/1~shift right arithmetic</t>
   </si>
   <si>
+    <t>word_intercept</t>
+  </si>
+  <si>
+    <t>0~doubleword instruction/1~word instruction</t>
+  </si>
+  <si>
     <t>INSTR_SH</t>
   </si>
   <si>
@@ -830,6 +836,9 @@
     <t>alu_shift_i</t>
   </si>
   <si>
+    <t>word_intercept_i</t>
+  </si>
+  <si>
     <t>alu_operation_i</t>
   </si>
   <si>
@@ -870,6 +879,9 @@
   </si>
   <si>
     <t>alu_shift_o</t>
+  </si>
+  <si>
+    <t>word_intercept_o</t>
   </si>
   <si>
     <t>alu_operation_o</t>
@@ -1160,8 +1172,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1185,30 +1197,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1223,7 +1213,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1231,7 +1221,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1253,8 +1257,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1285,6 +1311,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1294,22 +1328,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1317,13 +1336,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1374,7 +1386,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1386,7 +1422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1404,31 +1440,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1440,43 +1470,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1494,13 +1512,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1512,49 +1566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1583,30 +1595,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1618,17 +1606,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1652,7 +1629,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1680,6 +1672,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1688,10 +1700,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1700,133 +1712,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3451,10 +3463,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P159"/>
+  <dimension ref="A1:P165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="E155" sqref="E155"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -3986,7 +3998,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="2:12">
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B24" s="1" t="s">
         <v>231</v>
       </c>
@@ -3996,36 +4008,27 @@
       <c r="E24" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>143</v>
-      </c>
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="2:12">
       <c r="B25" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="L25" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" customHeight="1" spans="2:12">
       <c r="B26" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>162</v>
@@ -4034,16 +4037,16 @@
         <v>183</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>238</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" customHeight="1" spans="2:5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="2:12">
       <c r="B27" s="1" t="s">
         <v>239</v>
       </c>
@@ -4054,7 +4057,13 @@
         <v>183</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>240</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="2:5">
@@ -4068,32 +4077,32 @@
         <v>183</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B29" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B30" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>246</v>
@@ -4107,21 +4116,21 @@
         <v>162</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B32" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>251</v>
@@ -4162,6 +4171,9 @@
       <c r="C35" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="D35" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="E35" s="1" t="s">
         <v>257</v>
       </c>
@@ -4177,46 +4189,43 @@
         <v>259</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A37" s="1" t="s">
+    <row r="37" s="1" customFormat="1" customHeight="1" spans="2:5">
+      <c r="B37" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A38" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" customHeight="1" spans="2:12">
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" customHeight="1" spans="2:12">
+      <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" customHeight="1" spans="2:5">
-      <c r="B39" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="C39" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" customHeight="1" spans="2:4">
+    <row r="40" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B40" s="1" t="s">
         <v>264</v>
       </c>
@@ -4226,134 +4235,131 @@
       <c r="D40" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="E40" s="1" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="41" s="1" customFormat="1" customHeight="1" spans="2:4">
       <c r="B41" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B42" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" customHeight="1" spans="2:3">
-      <c r="B42" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43" s="1" customFormat="1" customHeight="1" spans="2:4">
+    <row r="43" s="1" customFormat="1" customHeight="1" spans="2:3">
       <c r="B43" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" customHeight="1" spans="2:4">
       <c r="B44" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="1" customHeight="1" spans="2:3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" customHeight="1" spans="2:4">
       <c r="B45" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>135</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" customHeight="1" spans="2:3">
       <c r="B46" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" customHeight="1" spans="2:4">
+    <row r="47" s="1" customFormat="1" customHeight="1" spans="2:3">
       <c r="B47" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" customHeight="1" spans="2:4">
+    </row>
+    <row r="48" s="1" customFormat="1" customHeight="1" spans="2:3">
       <c r="B48" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" customHeight="1" spans="2:4">
       <c r="B49" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B50" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" customHeight="1" spans="2:5">
-      <c r="B50" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="1" customHeight="1" spans="2:5">
+    <row r="51" s="1" customFormat="1" customHeight="1" spans="2:4">
       <c r="B51" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E51" s="1" t="s">
+    </row>
+    <row r="52" s="1" customFormat="1" customHeight="1" spans="2:5">
+      <c r="B52" s="1" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="52" s="1" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="53" s="1" customFormat="1" customHeight="1" spans="2:4">
+    </row>
+    <row r="53" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B53" s="1" t="s">
         <v>279</v>
       </c>
@@ -4361,191 +4367,188 @@
         <v>162</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="54" s="1" customFormat="1" customHeight="1" spans="2:3">
+        <v>183</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" customHeight="1" spans="2:4">
       <c r="B54" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>162</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" customHeight="1" spans="2:4">
       <c r="B55" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" customHeight="1" spans="2:3">
+      <c r="B56" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B57" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B56" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="57" s="1" customFormat="1" customHeight="1" spans="2:3">
-      <c r="B57" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="58" s="1" customFormat="1" customHeight="1" spans="2:3">
+    <row r="58" s="1" customFormat="1" customHeight="1" spans="2:4">
       <c r="B58" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="59" s="1" customFormat="1" customHeight="1" spans="2:4">
+      <c r="D58" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" customHeight="1" spans="2:3">
       <c r="B59" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D59" s="1" t="s">
+    </row>
+    <row r="60" s="1" customFormat="1" customHeight="1" spans="2:3">
+      <c r="B60" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" customHeight="1" spans="2:3">
+      <c r="B61" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B62" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B60" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D60" s="1" t="s">
+    <row r="63" s="1" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B63" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B61" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D61" s="1" t="s">
+    <row r="64" s="1" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B64" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:3">
-      <c r="A62" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B62" s="1" t="s">
+    <row r="65" customHeight="1" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="2:3">
-      <c r="B63" s="1" t="s">
+      <c r="C65" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="2:3">
+      <c r="B66" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="64" customHeight="1" spans="2:5">
-      <c r="B64" s="1" t="s">
+      <c r="C66" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="2:5">
+      <c r="B67" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D64" s="1" t="s">
+      <c r="C67" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="65" customHeight="1" spans="2:5">
-      <c r="B65" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="E67" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="2:5">
+      <c r="B68" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="2:4">
-      <c r="B66" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="67" customHeight="1" spans="2:4">
-      <c r="B67" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="2:4">
-      <c r="B68" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>163</v>
+      <c r="E68" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:4">
       <c r="B69" s="1" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="2:5">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="2:4">
       <c r="B70" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="2:4">
@@ -4553,10 +4556,10 @@
         <v>296</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="2:4">
@@ -4564,13 +4567,13 @@
         <v>297</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="73" customHeight="1" spans="2:4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="2:5">
       <c r="B73" s="1" t="s">
         <v>298</v>
       </c>
@@ -4580,10 +4583,13 @@
       <c r="D73" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="E73" s="1" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="74" customHeight="1" spans="2:4">
       <c r="B74" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>162</v>
@@ -4592,18 +4598,18 @@
         <v>183</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="2:5">
+    <row r="75" customHeight="1" spans="2:4">
       <c r="B75" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="76" customHeight="1" spans="2:5">
+      <c r="D75" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="2:4">
       <c r="B76" s="1" t="s">
         <v>302</v>
       </c>
@@ -4611,65 +4617,68 @@
         <v>162</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>303</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="2:4">
       <c r="B77" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="2:5">
       <c r="B78" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D78" s="1" t="s">
+    </row>
+    <row r="79" customHeight="1" spans="2:5">
+      <c r="B79" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="79" customHeight="1" spans="2:3">
-      <c r="B79" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>162</v>
+      <c r="E79" s="1" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="2:4">
       <c r="B80" s="1" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="81" customHeight="1" spans="2:4">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="2:5">
       <c r="B81" s="1" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>248</v>
+        <v>192</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="2:3">
@@ -4680,12 +4689,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83" customHeight="1" spans="2:3">
+    <row r="83" customHeight="1" spans="2:4">
       <c r="B83" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>162</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="2:4">
@@ -4696,637 +4708,618 @@
         <v>162</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="85" customHeight="1" spans="2:4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="2:3">
       <c r="B85" s="1" t="s">
         <v>286</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="86" customHeight="1" spans="2:4">
+    </row>
+    <row r="86" customHeight="1" spans="2:3">
       <c r="B86" s="1" t="s">
         <v>287</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="87" customHeight="1" spans="2:4">
+    </row>
+    <row r="87" customHeight="1" spans="2:3">
       <c r="B87" s="1" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="2:4">
       <c r="B88" s="1" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="89" customHeight="1" spans="1:5">
-      <c r="A89" s="3" t="s">
-        <v>81</v>
-      </c>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="2:4">
       <c r="B89" s="1" t="s">
-        <v>216</v>
+        <v>290</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="90" customHeight="1" spans="1:5">
-      <c r="A90" s="3"/>
+    </row>
+    <row r="90" customHeight="1" spans="2:4">
       <c r="B90" s="1" t="s">
-        <v>220</v>
+        <v>291</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="91" customHeight="1" spans="1:5">
-      <c r="A91" s="3"/>
+    </row>
+    <row r="91" customHeight="1" spans="2:4">
       <c r="B91" s="1" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="92" customHeight="1" spans="1:5">
-      <c r="A92" s="3"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="2:4">
       <c r="B92" s="1" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>249</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:5">
-      <c r="A93" s="3"/>
+      <c r="A93" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="B93" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="D93" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="E93" s="1" t="s">
-        <v>229</v>
+        <v>310</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:5">
       <c r="A94" s="3"/>
       <c r="B94" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="D94" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="E94" s="1" t="s">
-        <v>232</v>
+        <v>311</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="1:5">
       <c r="A95" s="3"/>
       <c r="B95" s="1" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:5">
       <c r="A96" s="3"/>
       <c r="B96" s="1" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>183</v>
+        <v>250</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="97" customHeight="1" spans="1:4">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:5">
       <c r="A97" s="3"/>
       <c r="B97" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>183</v>
+      <c r="E97" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:5">
       <c r="A98" s="3"/>
       <c r="B98" s="1" t="s">
-        <v>311</v>
+        <v>231</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>312</v>
+        <v>232</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:5">
       <c r="A99" s="3"/>
       <c r="B99" s="1" t="s">
-        <v>313</v>
+        <v>233</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>314</v>
+        <v>234</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:5">
       <c r="A100" s="3"/>
       <c r="B100" s="1" t="s">
-        <v>315</v>
+        <v>224</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:5">
       <c r="A101" s="3"/>
       <c r="B101" s="1" t="s">
-        <v>317</v>
+        <v>236</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="102" customHeight="1" spans="1:5">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:4">
       <c r="A102" s="3"/>
       <c r="B102" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:5">
+      <c r="A103" s="3"/>
+      <c r="B103" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="1:5">
+      <c r="A104" s="3"/>
+      <c r="B104" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="1:5">
+      <c r="A105" s="3"/>
+      <c r="B105" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E102" s="1" t="s">
+      <c r="C105" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="103" customHeight="1" spans="1:3">
-      <c r="A103" s="1" t="s">
+    <row r="106" customHeight="1" spans="1:5">
+      <c r="A106" s="3"/>
+      <c r="B106" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C106" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:5">
+      <c r="A107" s="3"/>
+      <c r="B107" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:3">
+      <c r="A108" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="104" customHeight="1" spans="2:3">
-      <c r="B104" s="1" t="s">
+      <c r="C108" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="2:3">
+      <c r="B109" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="105" customHeight="1" spans="2:5">
-      <c r="B105" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="106" customHeight="1" spans="2:5">
-      <c r="B106" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="107" customHeight="1" spans="2:5">
-      <c r="B107" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="108" customHeight="1" spans="2:5">
-      <c r="B108" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="109" customHeight="1" spans="2:5">
-      <c r="B109" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="C109" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="2:5">
       <c r="B110" s="1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="E110" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="2:5">
       <c r="B111" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="112" customHeight="1" spans="2:3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="2:5">
       <c r="B112" s="1" t="s">
-        <v>280</v>
+        <v>329</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="2:5">
       <c r="B113" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E113" s="1" t="s">
+    </row>
+    <row r="114" customHeight="1" spans="2:5">
+      <c r="B114" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="114" customHeight="1" spans="1:3">
-      <c r="A114" s="1" t="s">
+    <row r="115" customHeight="1" spans="2:5">
+      <c r="B115" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="115" customHeight="1" spans="2:3">
-      <c r="B115" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="2:5">
       <c r="B116" s="1" t="s">
-        <v>144</v>
+        <v>334</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="117" customHeight="1" spans="2:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="2:3">
       <c r="B117" s="1" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>335</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="2:5">
       <c r="B118" s="1" t="s">
-        <v>264</v>
+        <v>335</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E118" s="3"/>
-    </row>
-    <row r="119" customHeight="1" spans="2:5">
+      <c r="E118" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="1:3">
+      <c r="A119" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="B119" s="1" t="s">
-        <v>267</v>
+        <v>4</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E119" s="3"/>
-    </row>
-    <row r="120" customHeight="1" spans="2:5">
+    </row>
+    <row r="120" customHeight="1" spans="2:3">
       <c r="B120" s="1" t="s">
-        <v>268</v>
+        <v>6</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E120" s="3"/>
     </row>
     <row r="121" customHeight="1" spans="2:5">
       <c r="B121" s="1" t="s">
-        <v>269</v>
+        <v>144</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E121" s="3"/>
+      <c r="D121" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="122" customHeight="1" spans="2:5">
       <c r="B122" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E122" s="3"/>
+      <c r="D122" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="123" customHeight="1" spans="2:5">
       <c r="B123" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="E123" s="3"/>
     </row>
     <row r="124" customHeight="1" spans="2:5">
       <c r="B124" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="E124" s="3"/>
     </row>
     <row r="125" customHeight="1" spans="2:5">
       <c r="B125" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>183</v>
+        <v>250</v>
       </c>
       <c r="E125" s="3"/>
     </row>
     <row r="126" customHeight="1" spans="2:5">
       <c r="B126" s="1" t="s">
-        <v>323</v>
+        <v>271</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>336</v>
-      </c>
+      <c r="E126" s="3"/>
     </row>
     <row r="127" customHeight="1" spans="2:5">
       <c r="B127" s="1" t="s">
-        <v>326</v>
+        <v>272</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="128" customHeight="1" spans="2:3">
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" customHeight="1" spans="2:5">
       <c r="B128" s="1" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="E128" s="3"/>
     </row>
     <row r="129" customHeight="1" spans="2:5">
       <c r="B129" s="1" t="s">
-        <v>338</v>
+        <v>274</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>339</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E129" s="3"/>
     </row>
     <row r="130" customHeight="1" spans="2:5">
       <c r="B130" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E130" s="3"/>
+    </row>
+    <row r="131" customHeight="1" spans="2:5">
+      <c r="B131" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E131" s="3"/>
+    </row>
+    <row r="132" customHeight="1" spans="2:5">
+      <c r="B132" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E132" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E130" s="1" t="s">
+    </row>
+    <row r="133" customHeight="1" spans="2:5">
+      <c r="B133" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="131" customHeight="1" spans="2:6">
-      <c r="B131" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F131" s="3"/>
-    </row>
-    <row r="132" customHeight="1" spans="2:6">
-      <c r="B132" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F132" s="3"/>
-    </row>
-    <row r="133" customHeight="1" spans="2:6">
-      <c r="B133" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F133" s="3"/>
-    </row>
-    <row r="134" customHeight="1" spans="2:5">
+    <row r="134" customHeight="1" spans="2:3">
       <c r="B134" s="1" t="s">
-        <v>330</v>
+        <v>268</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>345</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="2:5">
       <c r="B135" s="1" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>162</v>
@@ -5334,319 +5327,394 @@
       <c r="D135" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E135" s="3"/>
+      <c r="E135" s="1" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="136" customHeight="1" spans="2:5">
       <c r="B136" s="1" t="s">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E136" s="3"/>
-    </row>
-    <row r="137" customHeight="1" spans="1:3">
-      <c r="A137" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="E136" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="2:6">
       <c r="B137" s="1" t="s">
-        <v>4</v>
+        <v>346</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="138" customHeight="1" spans="2:3">
+        <v>162</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F137" s="3"/>
+    </row>
+    <row r="138" customHeight="1" spans="2:6">
       <c r="B138" s="1" t="s">
-        <v>6</v>
+        <v>347</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="139" customHeight="1" spans="2:5">
+        <v>162</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F138" s="3"/>
+    </row>
+    <row r="139" customHeight="1" spans="2:6">
       <c r="B139" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E139" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="140" customHeight="1" spans="2:4">
+      <c r="F139" s="3"/>
+    </row>
+    <row r="140" customHeight="1" spans="2:5">
       <c r="B140" s="1" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>155</v>
+        <v>192</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="2:5">
       <c r="B141" s="1" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>350</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="E141" s="3"/>
     </row>
     <row r="142" customHeight="1" spans="2:5">
       <c r="B142" s="1" t="s">
-        <v>351</v>
+        <v>283</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="143" customHeight="1" spans="2:5">
+        <v>162</v>
+      </c>
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" customHeight="1" spans="1:3">
+      <c r="A143" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="B143" s="1" t="s">
-        <v>262</v>
+        <v>4</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D143" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="144" customHeight="1" spans="2:4">
+    </row>
+    <row r="144" customHeight="1" spans="2:3">
       <c r="B144" s="1" t="s">
-        <v>264</v>
+        <v>6</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="2:5">
       <c r="B145" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>243</v>
+        <v>155</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="146" customHeight="1" spans="2:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="146" customHeight="1" spans="2:4">
       <c r="B146" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E146" s="1" t="s">
-        <v>357</v>
+      <c r="D146" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="2:5">
       <c r="B147" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="148" customHeight="1" spans="2:4">
+        <v>135</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="2:5">
       <c r="B148" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="E148" s="3" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="149" customHeight="1" spans="2:5">
       <c r="B149" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="150" customHeight="1" spans="2:4">
+      <c r="B150" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="151" customHeight="1" spans="2:5">
+      <c r="B151" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="152" customHeight="1" spans="2:5">
+      <c r="B152" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E152" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="150" customHeight="1" spans="2:5">
-      <c r="B150" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="151" customHeight="1" spans="1:3">
-      <c r="A151" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="152" customHeight="1" spans="2:3">
-      <c r="B152" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="153" customHeight="1" spans="2:5">
       <c r="B153" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="154" customHeight="1" spans="2:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="154" customHeight="1" spans="2:4">
       <c r="B154" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E154" s="1" t="s">
-        <v>369</v>
-      </c>
     </row>
     <row r="155" customHeight="1" spans="2:5">
       <c r="B155" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="156" customHeight="1" spans="2:5">
       <c r="B156" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>135</v>
+        <v>162</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="157" customHeight="1" spans="2:5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="157" customHeight="1" spans="1:3">
+      <c r="A157" s="1" t="s">
+        <v>369</v>
+      </c>
       <c r="B157" s="1" t="s">
-        <v>374</v>
+        <v>4</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="158" customHeight="1" spans="2:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="158" customHeight="1" spans="2:3">
       <c r="B158" s="1" t="s">
-        <v>376</v>
+        <v>6</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="2:5">
       <c r="B159" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="160" customHeight="1" spans="2:5">
+      <c r="B160" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="161" customHeight="1" spans="2:5">
+      <c r="B161" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="162" customHeight="1" spans="2:5">
+      <c r="B162" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E162" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E159" s="1" t="s">
+    </row>
+    <row r="163" customHeight="1" spans="2:5">
+      <c r="B163" s="1" t="s">
         <v>378</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="164" customHeight="1" spans="2:4">
+      <c r="B164" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="165" customHeight="1" spans="2:5">
+      <c r="B165" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A36"/>
-    <mergeCell ref="A37:A61"/>
-    <mergeCell ref="A62:A88"/>
-    <mergeCell ref="A89:A102"/>
-    <mergeCell ref="A103:A113"/>
-    <mergeCell ref="A114:A136"/>
-    <mergeCell ref="A137:A150"/>
-    <mergeCell ref="A151:A159"/>
-    <mergeCell ref="E39:E49"/>
-    <mergeCell ref="E51:E61"/>
-    <mergeCell ref="E65:E69"/>
-    <mergeCell ref="E70:E74"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="E78:E88"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="E117:E125"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="E130:E133"/>
-    <mergeCell ref="E134:E136"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="E157:E158"/>
+    <mergeCell ref="A13:A37"/>
+    <mergeCell ref="A38:A64"/>
+    <mergeCell ref="A65:A92"/>
+    <mergeCell ref="A93:A107"/>
+    <mergeCell ref="A108:A118"/>
+    <mergeCell ref="A119:A142"/>
+    <mergeCell ref="A143:A156"/>
+    <mergeCell ref="A157:A165"/>
+    <mergeCell ref="E40:E51"/>
+    <mergeCell ref="E53:E64"/>
+    <mergeCell ref="E68:E72"/>
+    <mergeCell ref="E73:E77"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="E81:E92"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="E122:E131"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="E136:E139"/>
+    <mergeCell ref="E140:E142"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="E153:E154"/>
+    <mergeCell ref="E163:E164"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/DOC/IO.xlsx
+++ b/DOC/IO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="388">
   <si>
     <t>I</t>
   </si>
@@ -986,10 +986,16 @@
     <t>the address of memory to load</t>
   </si>
   <si>
-    <t>mem_state</t>
-  </si>
-  <si>
-    <t>1~store/0~read, default to read</t>
+    <t>mem_wr_en</t>
+  </si>
+  <si>
+    <t>1~store</t>
+  </si>
+  <si>
+    <t>mem_rd_en</t>
+  </si>
+  <si>
+    <t>1~read</t>
   </si>
   <si>
     <t>ex_mem.v</t>
@@ -1049,12 +1055,15 @@
     <t>used for bypass, from ex.v to decoder.v</t>
   </si>
   <si>
-    <t>mem_state_o</t>
+    <t>mem_rd_en_o</t>
   </si>
   <si>
     <t>to control the interact with memory, the output from ex.v</t>
   </si>
   <si>
+    <t>mem_wr_en_o</t>
+  </si>
+  <si>
     <t>data_mem_wr_o</t>
   </si>
   <si>
@@ -1065,6 +1074,12 @@
   </si>
   <si>
     <t>to control the interact with regs.v, the output from ex_mem.v</t>
+  </si>
+  <si>
+    <t>stall</t>
+  </si>
+  <si>
+    <t>hold the whole pipeline</t>
   </si>
   <si>
     <t>jmp_num1_i</t>
@@ -1171,10 +1186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1198,22 +1213,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1228,7 +1228,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1238,6 +1238,50 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1257,40 +1301,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1311,14 +1325,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1334,8 +1340,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1386,13 +1401,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1404,61 +1497,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1476,31 +1527,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1512,61 +1551,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1595,17 +1610,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1629,22 +1653,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1664,31 +1693,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1700,10 +1715,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1712,133 +1727,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3463,10 +3478,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P165"/>
+  <dimension ref="A1:P168"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -5002,45 +5017,43 @@
         <v>324</v>
       </c>
     </row>
-    <row r="108" customHeight="1" spans="1:3">
-      <c r="A108" s="1" t="s">
+    <row r="108" customHeight="1" spans="1:5">
+      <c r="A108" s="3"/>
+      <c r="B108" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:3">
+      <c r="A109" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="109" customHeight="1" spans="2:3">
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="2:3">
+      <c r="B110" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="110" customHeight="1" spans="2:5">
-      <c r="B110" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="C110" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="2:5">
       <c r="B111" s="1" t="s">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>328</v>
@@ -5054,137 +5067,137 @@
         <v>135</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>64</v>
+        <v>330</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="2:5">
       <c r="B113" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>331</v>
+        <v>64</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="2:5">
       <c r="B114" s="1" t="s">
-        <v>268</v>
+        <v>332</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="D114" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="E114" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="2:5">
       <c r="B115" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="E115" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="2:5">
       <c r="B116" s="1" t="s">
-        <v>334</v>
+        <v>269</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D116" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="2:5">
+      <c r="B117" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="E117" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="117" customHeight="1" spans="2:3">
-      <c r="B117" s="1" t="s">
+    <row r="118" customHeight="1" spans="2:3">
+      <c r="B118" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="118" customHeight="1" spans="2:5">
-      <c r="B118" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="C118" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D118" s="1" t="s">
+    </row>
+    <row r="119" customHeight="1" spans="2:5">
+      <c r="B119" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="119" customHeight="1" spans="1:3">
-      <c r="A119" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B119" s="1" t="s">
+      <c r="E119" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="1:3">
+      <c r="A120" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="120" customHeight="1" spans="2:3">
-      <c r="B120" s="1" t="s">
+      <c r="C120" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="121" customHeight="1" spans="2:3">
+      <c r="B121" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="121" customHeight="1" spans="2:5">
-      <c r="B121" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="C121" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="2:5">
       <c r="B122" s="1" t="s">
-        <v>264</v>
+        <v>144</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>339</v>
+        <v>145</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="123" customHeight="1" spans="2:5">
       <c r="B123" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>135</v>
@@ -5192,44 +5205,49 @@
       <c r="D123" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E123" s="3"/>
+      <c r="E123" s="3" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="124" customHeight="1" spans="2:5">
       <c r="B124" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="E124" s="3"/>
     </row>
     <row r="125" customHeight="1" spans="2:5">
       <c r="B125" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="E125" s="3"/>
     </row>
     <row r="126" customHeight="1" spans="2:5">
       <c r="B126" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>135</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="E126" s="3"/>
     </row>
     <row r="127" customHeight="1" spans="2:5">
       <c r="B127" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>135</v>
@@ -5238,7 +5256,7 @@
     </row>
     <row r="128" customHeight="1" spans="2:5">
       <c r="B128" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>135</v>
@@ -5247,31 +5265,28 @@
     </row>
     <row r="129" customHeight="1" spans="2:5">
       <c r="B129" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="E129" s="3"/>
     </row>
     <row r="130" customHeight="1" spans="2:5">
       <c r="B130" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="E130" s="3"/>
     </row>
     <row r="131" customHeight="1" spans="2:5">
       <c r="B131" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>135</v>
@@ -5283,52 +5298,50 @@
     </row>
     <row r="132" customHeight="1" spans="2:5">
       <c r="B132" s="1" t="s">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>340</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="E132" s="3"/>
     </row>
     <row r="133" customHeight="1" spans="2:5">
       <c r="B133" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D133" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="2:5">
+      <c r="B134" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="134" customHeight="1" spans="2:3">
-      <c r="B134" s="1" t="s">
+      <c r="E134" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="2:3">
+      <c r="B135" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="135" customHeight="1" spans="2:5">
-      <c r="B135" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="C135" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>343</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="2:5">
@@ -5338,123 +5351,120 @@
       <c r="C136" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="D136" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="E136" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="137" customHeight="1" spans="2:6">
+    <row r="137" customHeight="1" spans="2:5">
       <c r="B137" s="1" t="s">
         <v>346</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F137" s="3"/>
-    </row>
-    <row r="138" customHeight="1" spans="2:6">
+      <c r="E137" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="2:3">
       <c r="B138" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D138" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F138" s="3"/>
     </row>
     <row r="139" customHeight="1" spans="2:6">
       <c r="B139" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D139" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F139" s="3"/>
+    </row>
+    <row r="140" customHeight="1" spans="2:6">
+      <c r="B140" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F139" s="3"/>
-    </row>
-    <row r="140" customHeight="1" spans="2:5">
-      <c r="B140" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="141" customHeight="1" spans="2:5">
+      <c r="F140" s="3"/>
+    </row>
+    <row r="141" customHeight="1" spans="2:6">
       <c r="B141" s="1" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E141" s="3"/>
+        <v>155</v>
+      </c>
+      <c r="F141" s="3"/>
     </row>
     <row r="142" customHeight="1" spans="2:5">
       <c r="B142" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="2:5">
+      <c r="B143" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" customHeight="1" spans="2:5">
+      <c r="B144" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E142" s="3"/>
-    </row>
-    <row r="143" customHeight="1" spans="1:3">
-      <c r="A143" s="1" t="s">
+      <c r="C144" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" customHeight="1" spans="1:3">
+      <c r="A145" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="144" customHeight="1" spans="2:3">
-      <c r="B144" s="1" t="s">
+      <c r="C145" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="146" customHeight="1" spans="2:3">
+      <c r="B146" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="145" customHeight="1" spans="2:5">
-      <c r="B145" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="146" customHeight="1" spans="2:4">
-      <c r="B146" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="C146" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="2:5">
@@ -5464,10 +5474,7 @@
       <c r="C147" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E147" s="3" t="s">
+      <c r="E147" s="1" t="s">
         <v>354</v>
       </c>
     </row>
@@ -5481,80 +5488,86 @@
       <c r="D148" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E148" s="3" t="s">
+      <c r="E148" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="149" customHeight="1" spans="2:5">
+    <row r="149" customHeight="1" spans="2:4">
       <c r="B149" s="1" t="s">
-        <v>264</v>
+        <v>357</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="150" customHeight="1" spans="2:4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="150" customHeight="1" spans="2:5">
       <c r="B150" s="1" t="s">
-        <v>266</v>
+        <v>358</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>183</v>
+        <v>155</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="151" customHeight="1" spans="2:5">
       <c r="B151" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>359</v>
+        <v>155</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="2:5">
       <c r="B152" s="1" t="s">
-        <v>360</v>
+        <v>264</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="D152" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="E152" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="153" customHeight="1" spans="2:5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="153" customHeight="1" spans="2:4">
       <c r="B153" s="1" t="s">
-        <v>362</v>
+        <v>266</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E153" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="154" customHeight="1" spans="2:5">
+      <c r="B154" s="1" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="154" customHeight="1" spans="2:4">
-      <c r="B154" s="1" t="s">
+      <c r="C154" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E154" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="2:5">
@@ -5562,7 +5575,7 @@
         <v>365</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>366</v>
@@ -5575,105 +5588,105 @@
       <c r="C156" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="E156" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="157" customHeight="1" spans="1:3">
-      <c r="A157" s="1" t="s">
+    <row r="157" customHeight="1" spans="2:4">
+      <c r="B157" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C157" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="158" customHeight="1" spans="2:3">
+        <v>162</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" customHeight="1" spans="2:5">
       <c r="B158" s="1" t="s">
-        <v>6</v>
+        <v>370</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>135</v>
+        <v>162</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="2:5">
       <c r="B159" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="160" customHeight="1" spans="2:5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="160" customHeight="1" spans="1:3">
+      <c r="A160" s="1" t="s">
+        <v>374</v>
+      </c>
       <c r="B160" s="1" t="s">
-        <v>372</v>
+        <v>4</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="161" customHeight="1" spans="2:5">
+    </row>
+    <row r="161" customHeight="1" spans="2:3">
       <c r="B161" s="1" t="s">
-        <v>374</v>
+        <v>6</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="162" customHeight="1" spans="2:5">
       <c r="B162" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E162" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="163" customHeight="1" spans="2:5">
       <c r="B163" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E163" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C163" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E163" s="1" t="s">
+    </row>
+    <row r="164" customHeight="1" spans="2:5">
+      <c r="B164" s="1" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="164" customHeight="1" spans="2:4">
-      <c r="B164" s="1" t="s">
-        <v>380</v>
-      </c>
       <c r="C164" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>155</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="2:5">
@@ -5681,10 +5694,43 @@
         <v>381</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>382</v>
+      </c>
+    </row>
+    <row r="166" customHeight="1" spans="2:5">
+      <c r="B166" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="167" customHeight="1" spans="2:4">
+      <c r="B167" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="168" customHeight="1" spans="2:5">
+      <c r="B168" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -5694,11 +5740,11 @@
     <mergeCell ref="A13:A37"/>
     <mergeCell ref="A38:A64"/>
     <mergeCell ref="A65:A92"/>
-    <mergeCell ref="A93:A107"/>
-    <mergeCell ref="A108:A118"/>
-    <mergeCell ref="A119:A142"/>
-    <mergeCell ref="A143:A156"/>
-    <mergeCell ref="A157:A165"/>
+    <mergeCell ref="A93:A108"/>
+    <mergeCell ref="A109:A119"/>
+    <mergeCell ref="A120:A144"/>
+    <mergeCell ref="A145:A159"/>
+    <mergeCell ref="A160:A168"/>
     <mergeCell ref="E40:E51"/>
     <mergeCell ref="E53:E64"/>
     <mergeCell ref="E68:E72"/>
@@ -5706,15 +5752,15 @@
     <mergeCell ref="E79:E80"/>
     <mergeCell ref="E81:E92"/>
     <mergeCell ref="E101:E102"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="E122:E131"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="E136:E139"/>
-    <mergeCell ref="E140:E142"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="E153:E154"/>
-    <mergeCell ref="E163:E164"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="E123:E132"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="E137:E141"/>
+    <mergeCell ref="E142:E144"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="E166:E167"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/DOC/IO.xlsx
+++ b/DOC/IO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="390">
   <si>
     <t>I</t>
   </si>
@@ -1076,10 +1076,16 @@
     <t>to control the interact with regs.v, the output from ex_mem.v</t>
   </si>
   <si>
-    <t>stall</t>
+    <t>stall_store</t>
   </si>
   <si>
     <t>hold the whole pipeline</t>
+  </si>
+  <si>
+    <t>stall_load</t>
+  </si>
+  <si>
+    <t>hold the if procedure</t>
   </si>
   <si>
     <t>jmp_num1_i</t>
@@ -1186,10 +1192,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1213,7 +1219,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1228,113 +1241,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1350,7 +1257,106 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1401,7 +1407,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1413,13 +1533,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1431,151 +1575,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,6 +1616,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1628,8 +1658,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1649,11 +1679,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1677,36 +1713,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1715,10 +1721,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1727,133 +1733,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3478,10 +3484,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P168"/>
+  <dimension ref="A1:P169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -5485,14 +5491,11 @@
       <c r="C148" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="E148" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="149" customHeight="1" spans="2:4">
+    <row r="149" customHeight="1" spans="2:5">
       <c r="B149" s="1" t="s">
         <v>357</v>
       </c>
@@ -5502,19 +5505,19 @@
       <c r="D149" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="150" customHeight="1" spans="2:5">
+      <c r="E149" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="150" customHeight="1" spans="2:4">
       <c r="B150" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="151" customHeight="1" spans="2:5">
@@ -5533,21 +5536,21 @@
     </row>
     <row r="152" customHeight="1" spans="2:5">
       <c r="B152" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="153" customHeight="1" spans="2:5">
+      <c r="B153" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="153" customHeight="1" spans="2:4">
-      <c r="B153" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>135</v>
@@ -5555,19 +5558,19 @@
       <c r="D153" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="154" customHeight="1" spans="2:5">
+      <c r="E153" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="154" customHeight="1" spans="2:4">
       <c r="B154" s="1" t="s">
-        <v>363</v>
+        <v>266</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>364</v>
+        <v>183</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="2:5">
@@ -5577,6 +5580,9 @@
       <c r="C155" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="D155" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="E155" s="1" t="s">
         <v>366</v>
       </c>
@@ -5586,32 +5592,32 @@
         <v>367</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="157" customHeight="1" spans="2:4">
+    <row r="157" customHeight="1" spans="2:5">
       <c r="B157" s="1" t="s">
         <v>369</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="E157" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="158" customHeight="1" spans="2:4">
+      <c r="B158" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="158" customHeight="1" spans="2:5">
-      <c r="B158" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="2:5">
@@ -5621,44 +5627,41 @@
       <c r="C159" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="E159" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="160" customHeight="1" spans="1:3">
-      <c r="A160" s="1" t="s">
+    <row r="160" customHeight="1" spans="2:5">
+      <c r="B160" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="C160" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="161" customHeight="1" spans="1:3">
+      <c r="A161" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="161" customHeight="1" spans="2:3">
-      <c r="B161" s="1" t="s">
+      <c r="C161" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="162" customHeight="1" spans="2:3">
+      <c r="B162" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="162" customHeight="1" spans="2:5">
-      <c r="B162" s="1" t="s">
-        <v>375</v>
-      </c>
       <c r="C162" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="163" customHeight="1" spans="2:5">
@@ -5696,6 +5699,9 @@
       <c r="C165" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="D165" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="E165" s="1" t="s">
         <v>382</v>
       </c>
@@ -5705,32 +5711,43 @@
         <v>383</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="167" customHeight="1" spans="2:4">
+    <row r="167" customHeight="1" spans="2:5">
       <c r="B167" s="1" t="s">
         <v>385</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="E167" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="168" customHeight="1" spans="2:4">
+      <c r="B168" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="168" customHeight="1" spans="2:5">
-      <c r="B168" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>387</v>
+    <row r="169" customHeight="1" spans="2:5">
+      <c r="B169" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -5743,8 +5760,8 @@
     <mergeCell ref="A93:A108"/>
     <mergeCell ref="A109:A119"/>
     <mergeCell ref="A120:A144"/>
-    <mergeCell ref="A145:A159"/>
-    <mergeCell ref="A160:A168"/>
+    <mergeCell ref="A145:A160"/>
+    <mergeCell ref="A161:A169"/>
     <mergeCell ref="E40:E51"/>
     <mergeCell ref="E53:E64"/>
     <mergeCell ref="E68:E72"/>
@@ -5757,10 +5774,10 @@
     <mergeCell ref="E134:E135"/>
     <mergeCell ref="E137:E141"/>
     <mergeCell ref="E142:E144"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="E153:E154"/>
+    <mergeCell ref="E157:E158"/>
+    <mergeCell ref="E167:E168"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/DOC/IO.xlsx
+++ b/DOC/IO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="396">
   <si>
     <t>I</t>
   </si>
@@ -545,6 +545,18 @@
     <t>7:0</t>
   </si>
   <si>
+    <t>pc_i</t>
+  </si>
+  <si>
+    <t>to decide whether the pc is illegal</t>
+  </si>
+  <si>
+    <t>fetch_except</t>
+  </si>
+  <si>
+    <t>pc &lt; `BASE_PC or pc &gt; `PC_MAX or pc[1:0] != 2'b00</t>
+  </si>
+  <si>
     <t>instr_rd_o</t>
   </si>
   <si>
@@ -797,6 +809,12 @@
     <t>whether to write in the registers</t>
   </si>
   <si>
+    <t>decode_except</t>
+  </si>
+  <si>
+    <t>illegal exception</t>
+  </si>
+  <si>
     <t>load_bypass</t>
   </si>
   <si>
@@ -929,6 +947,9 @@
     <t>jmpb_rs2_o</t>
   </si>
   <si>
+    <t>decode_except_o</t>
+  </si>
+  <si>
     <t>load_bypass_o</t>
   </si>
   <si>
@@ -1146,9 +1167,6 @@
   </si>
   <si>
     <t>btb_ctrl.v</t>
-  </si>
-  <si>
-    <t>pc_i</t>
   </si>
   <si>
     <t>the pc of the instruction to be fetched</t>
@@ -1192,9 +1210,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1225,8 +1243,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1241,48 +1304,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1294,15 +1318,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1311,21 +1329,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1340,10 +1343,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1354,9 +1365,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1407,25 +1425,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1437,7 +1467,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1455,25 +1515,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1485,31 +1551,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1521,73 +1593,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1616,6 +1634,80 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1639,80 +1731,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1721,10 +1739,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1733,19 +1751,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1754,112 +1772,112 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3484,10 +3502,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P169"/>
+  <dimension ref="A1:P173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="E148" sqref="E148"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -3738,370 +3756,363 @@
         <v>176</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>158</v>
-      </c>
+      <c r="I11" s="2"/>
       <c r="P11" s="2"/>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="2:16">
       <c r="B12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="I12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="2:16">
+      <c r="B13" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="P12" s="2"/>
-    </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="I13" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="2:16">
+      <c r="B14" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A15" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="2:12">
-      <c r="B14" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K14" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="2:12">
-      <c r="B15" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="2:12">
       <c r="B16" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="2:12">
       <c r="B17" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="2:12">
       <c r="B18" s="1" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>206</v>
+        <v>139</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="2:12">
       <c r="B19" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="2:12">
+      <c r="B20" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I19" s="1" t="s">
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="2:12">
+      <c r="B21" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="2:9">
-      <c r="B20" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="2:9">
-      <c r="B21" s="1" t="s">
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="2:9">
+      <c r="B22" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="2:11">
-      <c r="B22" s="1" t="s">
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="2:9">
+      <c r="B23" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" spans="2:12">
-      <c r="B23" s="1" t="s">
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="2:11">
+      <c r="B24" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="2:5">
-      <c r="B24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="2:12">
       <c r="B25" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="2:5">
+      <c r="B26" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="2:12">
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" customHeight="1" spans="2:12">
       <c r="B27" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="K27" s="1" t="s">
+      <c r="L27" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="2:12">
+      <c r="B28" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="L27" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="2:5">
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="29" s="1" customFormat="1" customHeight="1" spans="2:5">
+      <c r="L28" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="2:12">
       <c r="B29" s="1" t="s">
         <v>243</v>
       </c>
@@ -4109,21 +4120,27 @@
         <v>162</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B30" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>246</v>
@@ -4137,49 +4154,49 @@
         <v>162</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B32" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B33" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B34" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>255</v>
@@ -4193,7 +4210,7 @@
         <v>162</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>257</v>
@@ -4206,6 +4223,9 @@
       <c r="C36" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="D36" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="E36" s="1" t="s">
         <v>259</v>
       </c>
@@ -4217,1048 +4237,1050 @@
       <c r="C37" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="D37" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="E37" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A38" s="1" t="s">
+    <row r="38" s="1" customFormat="1" customHeight="1" spans="2:5">
+      <c r="B38" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="L38" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" customHeight="1" spans="2:12">
+    <row r="39" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B39" s="1" t="s">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>263</v>
+        <v>162</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B40" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" customHeight="1" spans="2:4">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A41" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="B41" s="1" t="s">
-        <v>266</v>
+        <v>4</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="42" s="1" customFormat="1" customHeight="1" spans="2:4">
+      <c r="L41" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" customHeight="1" spans="2:12">
       <c r="B42" s="1" t="s">
-        <v>267</v>
+        <v>6</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="43" s="1" customFormat="1" customHeight="1" spans="2:3">
+      <c r="L42" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B43" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>135</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" customHeight="1" spans="2:4">
       <c r="B44" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" customHeight="1" spans="2:4">
       <c r="B45" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>250</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" customHeight="1" spans="2:3">
       <c r="B46" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" customHeight="1" spans="2:3">
+    <row r="47" s="1" customFormat="1" customHeight="1" spans="2:4">
       <c r="B47" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="48" s="1" customFormat="1" customHeight="1" spans="2:3">
+      <c r="D47" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" customHeight="1" spans="2:4">
       <c r="B48" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="49" s="1" customFormat="1" customHeight="1" spans="2:4">
+      <c r="D48" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" customHeight="1" spans="2:3">
       <c r="B49" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="50" s="1" customFormat="1" customHeight="1" spans="2:4">
+    </row>
+    <row r="50" s="1" customFormat="1" customHeight="1" spans="2:3">
       <c r="B50" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="1" customHeight="1" spans="2:4">
+    </row>
+    <row r="51" s="1" customFormat="1" customHeight="1" spans="2:3">
       <c r="B51" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="52" s="1" customFormat="1" customHeight="1" spans="2:5">
+    </row>
+    <row r="52" s="1" customFormat="1" customHeight="1" spans="2:4">
       <c r="B52" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="53" s="1" customFormat="1" customHeight="1" spans="2:5">
+      <c r="D52" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" customHeight="1" spans="2:4">
       <c r="B53" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>280</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" customHeight="1" spans="2:4">
       <c r="B54" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="55" s="1" customFormat="1" customHeight="1" spans="2:4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B55" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="56" s="1" customFormat="1" customHeight="1" spans="2:3">
+        <v>135</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B56" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>162</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" customHeight="1" spans="2:4">
       <c r="B57" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" customHeight="1" spans="2:4">
       <c r="B58" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>250</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" customHeight="1" spans="2:3">
       <c r="B59" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" customHeight="1" spans="2:3">
+    <row r="60" s="1" customFormat="1" customHeight="1" spans="2:4">
       <c r="B60" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="61" s="1" customFormat="1" customHeight="1" spans="2:3">
+      <c r="D60" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" customHeight="1" spans="2:4">
       <c r="B61" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="62" s="1" customFormat="1" customHeight="1" spans="2:4">
+      <c r="D61" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" customHeight="1" spans="2:3">
       <c r="B62" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="63" s="1" customFormat="1" customHeight="1" spans="2:4">
+    </row>
+    <row r="63" s="1" customFormat="1" customHeight="1" spans="2:3">
       <c r="B63" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="64" s="1" customFormat="1" customHeight="1" spans="2:4">
+    </row>
+    <row r="64" s="1" customFormat="1" customHeight="1" spans="2:3">
       <c r="B64" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="65" customHeight="1" spans="1:3">
-      <c r="A65" s="1" t="s">
-        <v>292</v>
-      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" customHeight="1" spans="2:4">
       <c r="B65" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B66" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B67" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="2:3">
-      <c r="B66" s="1" t="s">
+      <c r="C68" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="2:3">
+      <c r="B69" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="67" customHeight="1" spans="2:5">
-      <c r="B67" s="1" t="s">
+      <c r="C69" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="2:5">
+      <c r="B70" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D67" s="1" t="s">
+      <c r="C70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="2:5">
-      <c r="B68" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="69" customHeight="1" spans="2:4">
-      <c r="B69" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="2:4">
-      <c r="B70" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="71" customHeight="1" spans="2:4">
+      <c r="E70" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="2:5">
       <c r="B71" s="1" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>163</v>
+        <v>187</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="2:4">
       <c r="B72" s="1" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="73" customHeight="1" spans="2:5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="2:4">
       <c r="B73" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>299</v>
+        <v>187</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="2:4">
       <c r="B74" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="2:4">
       <c r="B75" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="76" customHeight="1" spans="2:4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="2:5">
       <c r="B76" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="2:4">
       <c r="B77" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="2:5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="2:4">
       <c r="B78" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="79" customHeight="1" spans="2:5">
+      <c r="D78" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="2:4">
       <c r="B79" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>307</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="2:4">
       <c r="B80" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="2:5">
       <c r="B81" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="E81" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="82" customHeight="1" spans="2:3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="2:5">
       <c r="B82" s="1" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="83" customHeight="1" spans="2:4">
+      <c r="E82" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="2:5">
       <c r="B83" s="1" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>210</v>
+        <v>196</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="2:4">
       <c r="B84" s="1" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="85" customHeight="1" spans="2:3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="2:5">
       <c r="B85" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="2:3">
       <c r="B86" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="87" customHeight="1" spans="2:3">
+    <row r="87" customHeight="1" spans="2:4">
       <c r="B87" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>162</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="2:4">
       <c r="B88" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="89" customHeight="1" spans="2:4">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="2:3">
       <c r="B89" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="90" customHeight="1" spans="2:4">
+    </row>
+    <row r="90" customHeight="1" spans="2:3">
       <c r="B90" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="91" customHeight="1" spans="2:4">
+    </row>
+    <row r="91" customHeight="1" spans="2:3">
       <c r="B91" s="1" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="2:4">
       <c r="B92" s="1" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="93" customHeight="1" spans="1:5">
-      <c r="A93" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="2:4">
+      <c r="B93" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="2:4">
+      <c r="B94" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="2:4">
+      <c r="B95" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="2:4">
+      <c r="B96" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:5">
+      <c r="A97" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="94" customHeight="1" spans="1:5">
-      <c r="A94" s="3"/>
-      <c r="B94" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="95" customHeight="1" spans="1:5">
-      <c r="A95" s="3"/>
-      <c r="B95" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="96" customHeight="1" spans="1:5">
-      <c r="A96" s="3"/>
-      <c r="B96" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="97" customHeight="1" spans="1:5">
-      <c r="A97" s="3"/>
-      <c r="B97" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="C97" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="D97" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="E97" s="1" t="s">
-        <v>229</v>
+        <v>317</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:5">
       <c r="A98" s="3"/>
       <c r="B98" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="D98" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="E98" s="1" t="s">
-        <v>232</v>
+        <v>318</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:5">
       <c r="A99" s="3"/>
       <c r="B99" s="1" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="D99" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="E99" s="1" t="s">
-        <v>234</v>
+        <v>319</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:5">
       <c r="A100" s="3"/>
       <c r="B100" s="1" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>313</v>
+        <v>255</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:5">
       <c r="A101" s="3"/>
       <c r="B101" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="E101" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="102" customHeight="1" spans="1:4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:5">
       <c r="A102" s="3"/>
       <c r="B102" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>183</v>
+      <c r="E102" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:5">
       <c r="A103" s="3"/>
       <c r="B103" s="1" t="s">
-        <v>315</v>
+        <v>237</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>316</v>
+        <v>238</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="1:5">
       <c r="A104" s="3"/>
       <c r="B104" s="1" t="s">
-        <v>317</v>
+        <v>228</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="1:5">
       <c r="A105" s="3"/>
       <c r="B105" s="1" t="s">
-        <v>319</v>
+        <v>240</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="106" customHeight="1" spans="1:5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:4">
       <c r="A106" s="3"/>
       <c r="B106" s="1" t="s">
-        <v>321</v>
+        <v>243</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>322</v>
+        <v>187</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="1:5">
       <c r="A107" s="3"/>
       <c r="B107" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="1:5">
       <c r="A108" s="3"/>
       <c r="B108" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E108" s="1" t="s">
+    </row>
+    <row r="109" customHeight="1" spans="1:5">
+      <c r="A109" s="3"/>
+      <c r="B109" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="109" customHeight="1" spans="1:3">
-      <c r="A109" s="1" t="s">
+      <c r="C109" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B109" s="1" t="s">
+    </row>
+    <row r="110" customHeight="1" spans="1:5">
+      <c r="A110" s="3"/>
+      <c r="B110" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:5">
+      <c r="A111" s="3"/>
+      <c r="B111" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="1:5">
+      <c r="A112" s="3"/>
+      <c r="B112" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="1:3">
+      <c r="A113" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="110" customHeight="1" spans="2:3">
-      <c r="B110" s="1" t="s">
+      <c r="C113" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="2:3">
+      <c r="B114" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="111" customHeight="1" spans="2:5">
-      <c r="B111" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="112" customHeight="1" spans="2:5">
-      <c r="B112" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="113" customHeight="1" spans="2:5">
-      <c r="B113" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="114" customHeight="1" spans="2:5">
-      <c r="B114" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="C114" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="2:5">
       <c r="B115" s="1" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="2:5">
       <c r="B116" s="1" t="s">
-        <v>269</v>
+        <v>336</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="2:5">
       <c r="B117" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="118" customHeight="1" spans="2:3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="2:5">
       <c r="B118" s="1" t="s">
-        <v>283</v>
+        <v>339</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="2:5">
       <c r="B119" s="1" t="s">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="120" customHeight="1" spans="1:3">
-      <c r="A120" s="1" t="s">
-        <v>339</v>
-      </c>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="2:5">
       <c r="B120" s="1" t="s">
-        <v>4</v>
+        <v>275</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="121" customHeight="1" spans="2:3">
+      <c r="D120" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="121" customHeight="1" spans="2:5">
       <c r="B121" s="1" t="s">
-        <v>6</v>
+        <v>343</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="122" customHeight="1" spans="2:5">
+        <v>162</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="2:3">
       <c r="B122" s="1" t="s">
-        <v>144</v>
+        <v>289</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>340</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123" customHeight="1" spans="2:5">
       <c r="B123" s="1" t="s">
-        <v>264</v>
+        <v>344</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="124" customHeight="1" spans="2:5">
+        <v>187</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="124" customHeight="1" spans="1:3">
+      <c r="A124" s="1" t="s">
+        <v>346</v>
+      </c>
       <c r="B124" s="1" t="s">
-        <v>266</v>
+        <v>4</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E124" s="3"/>
-    </row>
-    <row r="125" customHeight="1" spans="2:5">
+    </row>
+    <row r="125" customHeight="1" spans="2:3">
       <c r="B125" s="1" t="s">
-        <v>269</v>
+        <v>6</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E125" s="3"/>
     </row>
     <row r="126" customHeight="1" spans="2:5">
       <c r="B126" s="1" t="s">
-        <v>270</v>
+        <v>144</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E126" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="127" customHeight="1" spans="2:5">
       <c r="B127" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E127" s="3"/>
+      <c r="D127" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="128" customHeight="1" spans="2:5">
       <c r="B128" s="1" t="s">
@@ -5267,257 +5289,255 @@
       <c r="C128" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="D128" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="E128" s="3"/>
     </row>
     <row r="129" customHeight="1" spans="2:5">
       <c r="B129" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>135</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="E129" s="3"/>
     </row>
     <row r="130" customHeight="1" spans="2:5">
       <c r="B130" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="E130" s="3"/>
     </row>
     <row r="131" customHeight="1" spans="2:5">
       <c r="B131" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="E131" s="3"/>
     </row>
     <row r="132" customHeight="1" spans="2:5">
       <c r="B132" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="E132" s="3"/>
     </row>
     <row r="133" customHeight="1" spans="2:5">
       <c r="B133" s="1" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D133" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>342</v>
-      </c>
+      <c r="E133" s="3"/>
     </row>
     <row r="134" customHeight="1" spans="2:5">
       <c r="B134" s="1" t="s">
-        <v>332</v>
+        <v>280</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="135" customHeight="1" spans="2:3">
+        <v>229</v>
+      </c>
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" customHeight="1" spans="2:5">
       <c r="B135" s="1" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="D135" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E135" s="3"/>
     </row>
     <row r="136" customHeight="1" spans="2:5">
       <c r="B136" s="1" t="s">
-        <v>344</v>
+        <v>282</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>345</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="E136" s="3"/>
     </row>
     <row r="137" customHeight="1" spans="2:5">
       <c r="B137" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="138" customHeight="1" spans="2:3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="2:5">
       <c r="B138" s="1" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="139" customHeight="1" spans="2:6">
+        <v>135</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="2:3">
       <c r="B139" s="1" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D139" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="2:5">
+      <c r="B140" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="2:5">
+      <c r="B141" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="2:3">
+      <c r="B142" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="2:6">
+      <c r="B143" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F139" s="3"/>
-    </row>
-    <row r="140" customHeight="1" spans="2:6">
-      <c r="B140" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D140" s="1" t="s">
+      <c r="F143" s="3"/>
+    </row>
+    <row r="144" customHeight="1" spans="2:6">
+      <c r="B144" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F140" s="3"/>
-    </row>
-    <row r="141" customHeight="1" spans="2:6">
-      <c r="B141" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D141" s="1" t="s">
+      <c r="F144" s="3"/>
+    </row>
+    <row r="145" customHeight="1" spans="2:6">
+      <c r="B145" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F141" s="3"/>
-    </row>
-    <row r="142" customHeight="1" spans="2:5">
-      <c r="B142" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="143" customHeight="1" spans="2:5">
-      <c r="B143" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E143" s="3"/>
-    </row>
-    <row r="144" customHeight="1" spans="2:5">
-      <c r="B144" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E144" s="3"/>
-    </row>
-    <row r="145" customHeight="1" spans="1:3">
-      <c r="A145" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="146" customHeight="1" spans="2:3">
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" customHeight="1" spans="2:5">
       <c r="B146" s="1" t="s">
-        <v>6</v>
+        <v>343</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>135</v>
+        <v>162</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="2:5">
       <c r="B147" s="1" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>354</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E147" s="3"/>
     </row>
     <row r="148" customHeight="1" spans="2:5">
       <c r="B148" s="1" t="s">
-        <v>355</v>
+        <v>289</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="149" customHeight="1" spans="2:5">
+        <v>162</v>
+      </c>
+      <c r="E148" s="3"/>
+    </row>
+    <row r="149" customHeight="1" spans="1:3">
+      <c r="A149" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="B149" s="1" t="s">
-        <v>357</v>
+        <v>4</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="150" customHeight="1" spans="2:4">
+    </row>
+    <row r="150" customHeight="1" spans="2:3">
       <c r="B150" s="1" t="s">
-        <v>359</v>
+        <v>6</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="151" customHeight="1" spans="2:5">
@@ -5527,10 +5547,7 @@
       <c r="C151" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E151" s="3" t="s">
+      <c r="E151" s="1" t="s">
         <v>361</v>
       </c>
     </row>
@@ -5541,83 +5558,86 @@
       <c r="C152" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E152" s="3" t="s">
+      <c r="E152" s="1" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="153" customHeight="1" spans="2:5">
       <c r="B153" s="1" t="s">
-        <v>264</v>
+        <v>364</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="154" customHeight="1" spans="2:4">
       <c r="B154" s="1" t="s">
-        <v>266</v>
+        <v>366</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="2:5">
       <c r="B155" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>366</v>
+        <v>155</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="156" customHeight="1" spans="2:5">
       <c r="B156" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E156" s="1" t="s">
-        <v>368</v>
+      <c r="D156" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="157" customHeight="1" spans="2:5">
       <c r="B157" s="1" t="s">
-        <v>369</v>
+        <v>270</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="158" customHeight="1" spans="2:4">
       <c r="B158" s="1" t="s">
-        <v>371</v>
+        <v>272</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="2:5">
@@ -5625,7 +5645,10 @@
         <v>372</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>373</v>
@@ -5636,148 +5659,192 @@
         <v>374</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="161" customHeight="1" spans="1:3">
-      <c r="A161" s="1" t="s">
+    <row r="161" customHeight="1" spans="2:5">
+      <c r="B161" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C161" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="162" customHeight="1" spans="2:3">
+        <v>162</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="162" customHeight="1" spans="2:4">
       <c r="B162" s="1" t="s">
-        <v>6</v>
+        <v>378</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>135</v>
+        <v>162</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="163" customHeight="1" spans="2:5">
       <c r="B163" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="164" customHeight="1" spans="2:5">
       <c r="B164" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="165" customHeight="1" spans="2:5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="165" customHeight="1" spans="1:3">
+      <c r="A165" s="1" t="s">
+        <v>383</v>
+      </c>
       <c r="B165" s="1" t="s">
-        <v>381</v>
+        <v>4</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D165" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="166" customHeight="1" spans="2:5">
+    </row>
+    <row r="166" customHeight="1" spans="2:3">
       <c r="B166" s="1" t="s">
-        <v>383</v>
+        <v>6</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="167" customHeight="1" spans="2:5">
       <c r="B167" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="168" customHeight="1" spans="2:5">
+      <c r="B168" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C167" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="168" customHeight="1" spans="2:4">
-      <c r="B168" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="C168" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="E168" s="1" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="169" customHeight="1" spans="2:5">
       <c r="B169" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E169" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C169" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E169" s="1" t="s">
+    </row>
+    <row r="170" customHeight="1" spans="2:5">
+      <c r="B170" s="1" t="s">
         <v>389</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="171" customHeight="1" spans="2:5">
+      <c r="B171" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="172" customHeight="1" spans="2:4">
+      <c r="B172" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="173" customHeight="1" spans="2:5">
+      <c r="B173" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A37"/>
-    <mergeCell ref="A38:A64"/>
-    <mergeCell ref="A65:A92"/>
-    <mergeCell ref="A93:A108"/>
-    <mergeCell ref="A109:A119"/>
-    <mergeCell ref="A120:A144"/>
-    <mergeCell ref="A145:A160"/>
-    <mergeCell ref="A161:A169"/>
-    <mergeCell ref="E40:E51"/>
-    <mergeCell ref="E53:E64"/>
-    <mergeCell ref="E68:E72"/>
-    <mergeCell ref="E73:E77"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="E81:E92"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="E123:E132"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="E137:E141"/>
-    <mergeCell ref="E142:E144"/>
-    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A40"/>
+    <mergeCell ref="A41:A67"/>
+    <mergeCell ref="A68:A96"/>
+    <mergeCell ref="A97:A112"/>
+    <mergeCell ref="A113:A123"/>
+    <mergeCell ref="A124:A148"/>
+    <mergeCell ref="A149:A164"/>
+    <mergeCell ref="A165:A173"/>
+    <mergeCell ref="E43:E54"/>
+    <mergeCell ref="E56:E67"/>
+    <mergeCell ref="E71:E75"/>
+    <mergeCell ref="E76:E80"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="E85:E96"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="E127:E136"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="E141:E145"/>
+    <mergeCell ref="E146:E148"/>
     <mergeCell ref="E153:E154"/>
     <mergeCell ref="E157:E158"/>
-    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="E161:E162"/>
+    <mergeCell ref="E171:E172"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/DOC/IO.xlsx
+++ b/DOC/IO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="404">
   <si>
     <t>I</t>
   </si>
@@ -815,6 +815,24 @@
     <t>illegal exception</t>
   </si>
   <si>
+    <t>csr_addr_i</t>
+  </si>
+  <si>
+    <t>`BUS_CSR_IMM</t>
+  </si>
+  <si>
+    <t>the csr address to write in</t>
+  </si>
+  <si>
+    <t>csr_instr_i</t>
+  </si>
+  <si>
+    <t>`BUS_CSR_CODE</t>
+  </si>
+  <si>
+    <t>the instruction type for csr</t>
+  </si>
+  <si>
     <t>load_bypass</t>
   </si>
   <si>
@@ -911,6 +929,12 @@
     <t>alu_op_num2_o</t>
   </si>
   <si>
+    <t>csr_addr_o</t>
+  </si>
+  <si>
+    <t>csr_instr_o</t>
+  </si>
+  <si>
     <t>id_stage.v</t>
   </si>
   <si>
@@ -1016,7 +1040,7 @@
     <t>mem_rd_en</t>
   </si>
   <si>
-    <t>1~read</t>
+    <t>1~load</t>
   </si>
   <si>
     <t>ex_mem.v</t>
@@ -1210,9 +1234,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1236,42 +1260,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1281,15 +1269,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1304,9 +1284,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1326,33 +1359,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1366,15 +1398,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1425,19 +1449,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,49 +1503,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1509,7 +1521,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1521,31 +1557,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1557,49 +1587,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1649,6 +1673,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1671,39 +1713,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1731,6 +1740,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1739,10 +1763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1751,133 +1775,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1888,11 +1912,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -3502,10 +3526,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P173"/>
+  <dimension ref="A1:P181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -3561,7 +3585,7 @@
       <c r="H2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>137</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -3581,7 +3605,7 @@
       <c r="H3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>141</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -3590,7 +3614,7 @@
       <c r="L3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="P3" s="2"/>
+      <c r="P3" s="3"/>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="2:16">
       <c r="B4" s="1" t="s">
@@ -3608,7 +3632,7 @@
       <c r="H4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>141</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -3617,7 +3641,7 @@
       <c r="L4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="P4" s="2"/>
+      <c r="P4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="2:16">
       <c r="B5" s="1" t="s">
@@ -3632,7 +3656,7 @@
       <c r="H5" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>141</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -3641,7 +3665,7 @@
       <c r="L5" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="P5" s="2"/>
+      <c r="P5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="2:16">
       <c r="B6" s="1" t="s">
@@ -3659,7 +3683,7 @@
       <c r="H6" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="3" t="s">
         <v>158</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -3668,7 +3692,7 @@
       <c r="L6" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="P6" s="2"/>
+      <c r="P6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="2:9">
       <c r="B7" s="1" t="s">
@@ -3686,7 +3710,7 @@
       <c r="H7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="3" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3709,7 +3733,7 @@
       <c r="H8" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3729,7 +3753,7 @@
       <c r="H9" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="3" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3746,10 +3770,10 @@
       <c r="H10" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="P10" s="2"/>
+      <c r="P10" s="3"/>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="2:16">
       <c r="B11" s="1" t="s">
@@ -3761,8 +3785,8 @@
       <c r="E11" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="P11" s="2"/>
+      <c r="I11" s="3"/>
+      <c r="P11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="2:16">
       <c r="B12" s="1" t="s">
@@ -3771,12 +3795,11 @@
       <c r="C12" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="P12" s="2"/>
+      <c r="I12" s="3"/>
+      <c r="P12" s="3"/>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="2:16">
       <c r="B13" s="1" t="s">
@@ -3794,10 +3817,10 @@
       <c r="H13" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="P13" s="2"/>
+      <c r="P13" s="3"/>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="2:16">
       <c r="B14" s="1" t="s">
@@ -3809,7 +3832,7 @@
       <c r="E14" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="P14" s="2"/>
+      <c r="P14" s="3"/>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -4273,425 +4296,441 @@
       <c r="C40" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="D40" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="E40" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A41" s="1" t="s">
         <v>268</v>
       </c>
+    </row>
+    <row r="41" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B41" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" customHeight="1" spans="2:5">
+      <c r="B42" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A43" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="42" s="1" customFormat="1" customHeight="1" spans="2:12">
-      <c r="B42" s="1" t="s">
+      <c r="C43" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" customHeight="1" spans="2:12">
+      <c r="B44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="43" s="1" customFormat="1" customHeight="1" spans="2:5">
-      <c r="B43" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="C44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" customHeight="1" spans="2:5">
+      <c r="B45" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B44" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="E45" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" customHeight="1" spans="2:5">
+      <c r="B46" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="45" s="1" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B45" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" s="1" customFormat="1" customHeight="1" spans="2:5">
+      <c r="B47" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="46" s="1" customFormat="1" customHeight="1" spans="2:3">
-      <c r="B46" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B47" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" s="1" customFormat="1" customHeight="1" spans="2:5">
+      <c r="B48" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" s="1" customFormat="1" customHeight="1" spans="2:5">
+      <c r="B49" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="48" s="1" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B48" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" s="1" customFormat="1" customHeight="1" spans="2:5">
+      <c r="B50" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="49" s="1" customFormat="1" customHeight="1" spans="2:3">
-      <c r="B49" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" s="1" customFormat="1" customHeight="1" spans="2:3">
-      <c r="B50" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="1" customHeight="1" spans="2:3">
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B51" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="52" s="1" customFormat="1" customHeight="1" spans="2:4">
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B52" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" s="1" customFormat="1" customHeight="1" spans="2:5">
+      <c r="B53" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" s="1" customFormat="1" customHeight="1" spans="2:5">
+      <c r="B54" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="53" s="1" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B53" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="54" s="1" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B54" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>187</v>
-      </c>
+      <c r="E54" s="2"/>
     </row>
     <row r="55" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B55" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>284</v>
-      </c>
+      <c r="D55" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E55" s="2"/>
     </row>
     <row r="56" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B56" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="57" s="1" customFormat="1" customHeight="1" spans="2:4">
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B57" s="1" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="58" s="1" customFormat="1" customHeight="1" spans="2:4">
+        <v>267</v>
+      </c>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B58" s="1" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="59" s="1" customFormat="1" customHeight="1" spans="2:3">
+        <v>270</v>
+      </c>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B59" s="1" t="s">
         <v>289</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="60" s="1" customFormat="1" customHeight="1" spans="2:4">
+        <v>135</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" customHeight="1" spans="2:5">
       <c r="B60" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>214</v>
+        <v>187</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" customHeight="1" spans="2:4">
       <c r="B61" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="62" s="1" customFormat="1" customHeight="1" spans="2:3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" customHeight="1" spans="2:4">
       <c r="B62" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>162</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" customHeight="1" spans="2:3">
       <c r="B63" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" customHeight="1" spans="2:3">
+    <row r="64" s="1" customFormat="1" customHeight="1" spans="2:4">
       <c r="B64" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>162</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" customHeight="1" spans="2:4">
       <c r="B65" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D65" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" customHeight="1" spans="2:3">
+      <c r="B66" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" customHeight="1" spans="2:3">
+      <c r="B67" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="1" customHeight="1" spans="2:3">
+      <c r="B68" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B69" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="66" s="1" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B66" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D66" s="1" t="s">
+    <row r="70" s="1" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B70" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="67" s="1" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B67" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="1:3">
-      <c r="A68" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" customHeight="1" spans="2:3">
-      <c r="B69" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="2:5">
-      <c r="B70" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="71" customHeight="1" spans="2:5">
+    <row r="71" s="1" customFormat="1" customHeight="1" spans="2:4">
       <c r="B71" s="1" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="72" customHeight="1" spans="2:4">
+    </row>
+    <row r="72" s="1" customFormat="1" customHeight="1" spans="2:4">
       <c r="B72" s="1" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="73" customHeight="1" spans="2:4">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" customHeight="1" spans="2:4">
       <c r="B73" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="74" customHeight="1" spans="2:4">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:3">
+      <c r="A74" s="1" t="s">
+        <v>306</v>
+      </c>
       <c r="B74" s="1" t="s">
-        <v>302</v>
+        <v>4</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="75" customHeight="1" spans="2:4">
+    </row>
+    <row r="75" customHeight="1" spans="2:3">
       <c r="B75" s="1" t="s">
-        <v>303</v>
+        <v>6</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="2:5">
       <c r="B76" s="1" t="s">
-        <v>304</v>
+        <v>144</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="77" customHeight="1" spans="2:4">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="2:5">
       <c r="B77" s="1" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="E77" s="1" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="78" customHeight="1" spans="2:4">
       <c r="B78" s="1" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="2:4">
       <c r="B79" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>187</v>
@@ -4699,49 +4738,49 @@
     </row>
     <row r="80" customHeight="1" spans="2:4">
       <c r="B80" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="81" customHeight="1" spans="2:5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="2:4">
       <c r="B81" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>265</v>
+        <v>135</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="2:5">
       <c r="B82" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="D82" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="E82" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="83" customHeight="1" spans="2:5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="2:4">
       <c r="B83" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>314</v>
+        <v>187</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="2:4">
@@ -4752,10 +4791,10 @@
         <v>162</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="85" customHeight="1" spans="2:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="2:4">
       <c r="B85" s="1" t="s">
         <v>316</v>
       </c>
@@ -4763,75 +4802,87 @@
         <v>162</v>
       </c>
       <c r="D85" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="2:4">
+      <c r="B86" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="2:5">
+      <c r="B87" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="2:5">
+      <c r="B88" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="2:5">
+      <c r="B89" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="86" customHeight="1" spans="2:3">
-      <c r="B86" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="87" customHeight="1" spans="2:4">
-      <c r="B87" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="88" customHeight="1" spans="2:4">
-      <c r="B88" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="89" customHeight="1" spans="2:3">
-      <c r="B89" s="1" t="s">
+      <c r="E89" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="2:4">
+      <c r="B90" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="2:5">
+      <c r="B91" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="90" customHeight="1" spans="2:3">
-      <c r="B90" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="91" customHeight="1" spans="2:3">
-      <c r="B91" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="92" customHeight="1" spans="2:4">
+    </row>
+    <row r="92" customHeight="1" spans="2:3">
       <c r="B92" s="1" t="s">
         <v>295</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="2:4">
@@ -4842,7 +4893,7 @@
         <v>162</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="2:4">
@@ -4853,148 +4904,116 @@
         <v>162</v>
       </c>
       <c r="D94" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="2:3">
+      <c r="B95" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="2:3">
+      <c r="B96" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="2:3">
+      <c r="B97" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="2:4">
+      <c r="B98" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="2:4">
+      <c r="B99" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="95" customHeight="1" spans="2:4">
-      <c r="B95" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D95" s="1" t="s">
+    <row r="100" customHeight="1" spans="2:4">
+      <c r="B100" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="96" customHeight="1" spans="2:4">
-      <c r="B96" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D96" s="1" t="s">
+    <row r="101" customHeight="1" spans="2:4">
+      <c r="B101" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="2:4">
+      <c r="B102" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="2:4">
+      <c r="B103" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="97" customHeight="1" spans="1:5">
-      <c r="A97" s="3" t="s">
+    <row r="104" customHeight="1" spans="2:4">
+      <c r="B104" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="1:5">
+      <c r="A105" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="98" customHeight="1" spans="1:5">
-      <c r="A98" s="3"/>
-      <c r="B98" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="99" customHeight="1" spans="1:5">
-      <c r="A99" s="3"/>
-      <c r="B99" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="100" customHeight="1" spans="1:5">
-      <c r="A100" s="3"/>
-      <c r="B100" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="101" customHeight="1" spans="1:5">
-      <c r="A101" s="3"/>
-      <c r="B101" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="102" customHeight="1" spans="1:5">
-      <c r="A102" s="3"/>
-      <c r="B102" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="103" customHeight="1" spans="1:5">
-      <c r="A103" s="3"/>
-      <c r="B103" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="104" customHeight="1" spans="1:5">
-      <c r="A104" s="3"/>
-      <c r="B104" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="105" customHeight="1" spans="1:5">
-      <c r="A105" s="3"/>
-      <c r="B105" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>135</v>
@@ -5003,13 +5022,13 @@
         <v>187</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="106" customHeight="1" spans="1:4">
-      <c r="A106" s="3"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:5">
+      <c r="A106" s="2"/>
       <c r="B106" s="1" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>135</v>
@@ -5017,349 +5036,371 @@
       <c r="D106" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="E106" s="1" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="107" customHeight="1" spans="1:5">
-      <c r="A107" s="3"/>
+      <c r="A107" s="2"/>
       <c r="B107" s="1" t="s">
-        <v>322</v>
+        <v>251</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D107" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:5">
+      <c r="A108" s="2"/>
+      <c r="B108" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:5">
+      <c r="A109" s="2"/>
+      <c r="B109" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:5">
+      <c r="A110" s="2"/>
+      <c r="B110" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:5">
+      <c r="A111" s="2"/>
+      <c r="B111" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="1:5">
+      <c r="A112" s="2"/>
+      <c r="B112" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="1:5">
+      <c r="A113" s="2"/>
+      <c r="B113" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="108" customHeight="1" spans="1:5">
-      <c r="A108" s="3"/>
-      <c r="B108" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="109" customHeight="1" spans="1:5">
-      <c r="A109" s="3"/>
-      <c r="B109" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="110" customHeight="1" spans="1:5">
-      <c r="A110" s="3"/>
-      <c r="B110" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E110" s="1" t="s">
+      <c r="E113" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="111" customHeight="1" spans="1:5">
-      <c r="A111" s="3"/>
-      <c r="B111" s="1" t="s">
+    <row r="114" customHeight="1" spans="1:4">
+      <c r="A114" s="2"/>
+      <c r="B114" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="1:5">
+      <c r="A115" s="2"/>
+      <c r="B115" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E111" s="1" t="s">
+      <c r="C115" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="112" customHeight="1" spans="1:5">
-      <c r="A112" s="3"/>
-      <c r="B112" s="1" t="s">
+    <row r="116" customHeight="1" spans="1:5">
+      <c r="A116" s="2"/>
+      <c r="B116" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="113" customHeight="1" spans="1:3">
-      <c r="A113" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="114" customHeight="1" spans="2:3">
-      <c r="B114" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="115" customHeight="1" spans="2:5">
-      <c r="B115" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="116" customHeight="1" spans="2:5">
-      <c r="B116" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="C116" s="1" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>163</v>
       </c>
       <c r="E116" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="1:5">
+      <c r="A117" s="2"/>
+      <c r="B117" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="1:5">
+      <c r="A118" s="2"/>
+      <c r="B118" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="117" customHeight="1" spans="2:5">
-      <c r="B117" s="1" t="s">
+    <row r="119" customHeight="1" spans="1:5">
+      <c r="A119" s="2"/>
+      <c r="B119" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="118" customHeight="1" spans="2:5">
-      <c r="B118" s="1" t="s">
+      <c r="C119" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E118" s="1" t="s">
+    </row>
+    <row r="120" customHeight="1" spans="1:5">
+      <c r="A120" s="2"/>
+      <c r="B120" s="1" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="119" customHeight="1" spans="2:5">
-      <c r="B119" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E119" s="1" t="s">
+      <c r="C120" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="120" customHeight="1" spans="2:5">
-      <c r="B120" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E120" s="1" t="s">
+    <row r="121" customHeight="1" spans="1:3">
+      <c r="A121" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="121" customHeight="1" spans="2:5">
       <c r="B121" s="1" t="s">
-        <v>343</v>
+        <v>4</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>286</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="2:3">
       <c r="B122" s="1" t="s">
-        <v>289</v>
+        <v>6</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" customHeight="1" spans="2:5">
       <c r="B123" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="124" customHeight="1" spans="2:5">
+      <c r="B124" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D123" s="1" t="s">
+      <c r="C124" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="125" customHeight="1" spans="2:5">
+      <c r="B125" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="124" customHeight="1" spans="1:3">
-      <c r="A124" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="125" customHeight="1" spans="2:3">
-      <c r="B125" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>135</v>
+      <c r="E125" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="2:5">
       <c r="B126" s="1" t="s">
-        <v>144</v>
+        <v>347</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="2:5">
       <c r="B127" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>348</v>
+      <c r="E127" s="1" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="2:5">
       <c r="B128" s="1" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E128" s="3"/>
+        <v>214</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="129" customHeight="1" spans="2:5">
       <c r="B129" s="1" t="s">
-        <v>275</v>
+        <v>351</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E129" s="3"/>
-    </row>
-    <row r="130" customHeight="1" spans="2:5">
+        <v>196</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="2:3">
       <c r="B130" s="1" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E130" s="3"/>
+        <v>162</v>
+      </c>
     </row>
     <row r="131" customHeight="1" spans="2:5">
       <c r="B131" s="1" t="s">
-        <v>277</v>
+        <v>352</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E131" s="3"/>
-    </row>
-    <row r="132" customHeight="1" spans="2:5">
+        <v>162</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="1:3">
+      <c r="A132" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="B132" s="1" t="s">
-        <v>278</v>
+        <v>4</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E132" s="3"/>
-    </row>
-    <row r="133" customHeight="1" spans="2:5">
+    </row>
+    <row r="133" customHeight="1" spans="2:3">
       <c r="B133" s="1" t="s">
-        <v>279</v>
+        <v>6</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E133" s="3"/>
     </row>
     <row r="134" customHeight="1" spans="2:5">
       <c r="B134" s="1" t="s">
-        <v>280</v>
+        <v>144</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E134" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="135" customHeight="1" spans="2:5">
       <c r="B135" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>135</v>
@@ -5367,11 +5408,13 @@
       <c r="D135" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E135" s="3"/>
+      <c r="E135" s="2" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="136" customHeight="1" spans="2:5">
       <c r="B136" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>135</v>
@@ -5379,309 +5422,296 @@
       <c r="D136" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E136" s="3"/>
+      <c r="E136" s="2"/>
     </row>
     <row r="137" customHeight="1" spans="2:5">
       <c r="B137" s="1" t="s">
-        <v>336</v>
+        <v>281</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>349</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="E137" s="2"/>
     </row>
     <row r="138" customHeight="1" spans="2:5">
       <c r="B138" s="1" t="s">
-        <v>339</v>
+        <v>282</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="139" customHeight="1" spans="2:3">
+        <v>254</v>
+      </c>
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139" customHeight="1" spans="2:5">
       <c r="B139" s="1" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="E139" s="2"/>
     </row>
     <row r="140" customHeight="1" spans="2:5">
       <c r="B140" s="1" t="s">
-        <v>351</v>
+        <v>284</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>352</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="E140" s="2"/>
     </row>
     <row r="141" customHeight="1" spans="2:5">
       <c r="B141" s="1" t="s">
-        <v>353</v>
+        <v>285</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="142" customHeight="1" spans="2:3">
+        <v>135</v>
+      </c>
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142" customHeight="1" spans="2:5">
       <c r="B142" s="1" t="s">
-        <v>355</v>
+        <v>286</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="143" customHeight="1" spans="2:6">
+        <v>135</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143" customHeight="1" spans="2:5">
       <c r="B143" s="1" t="s">
-        <v>356</v>
+        <v>287</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D143" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144" customHeight="1" spans="2:5">
+      <c r="B144" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145" customHeight="1" spans="2:5">
+      <c r="B145" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F143" s="3"/>
-    </row>
-    <row r="144" customHeight="1" spans="2:6">
-      <c r="B144" s="1" t="s">
+      <c r="E145" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F144" s="3"/>
-    </row>
-    <row r="145" customHeight="1" spans="2:6">
-      <c r="B145" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F145" s="3"/>
     </row>
     <row r="146" customHeight="1" spans="2:5">
       <c r="B146" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E146" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="147" customHeight="1" spans="2:5">
+      <c r="E146" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="2:3">
       <c r="B147" s="1" t="s">
-        <v>344</v>
+        <v>280</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E147" s="3"/>
+        <v>135</v>
+      </c>
     </row>
     <row r="148" customHeight="1" spans="2:5">
       <c r="B148" s="1" t="s">
-        <v>289</v>
+        <v>359</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E148" s="3"/>
-    </row>
-    <row r="149" customHeight="1" spans="1:3">
-      <c r="A149" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="D148" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="149" customHeight="1" spans="2:5">
       <c r="B149" s="1" t="s">
-        <v>4</v>
+        <v>361</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>135</v>
+        <v>162</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="2:3">
       <c r="B150" s="1" t="s">
-        <v>6</v>
+        <v>363</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="151" customHeight="1" spans="2:5">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="151" customHeight="1" spans="2:6">
       <c r="B151" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="152" customHeight="1" spans="2:5">
+        <v>162</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F151" s="2"/>
+    </row>
+    <row r="152" customHeight="1" spans="2:6">
       <c r="B152" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="153" customHeight="1" spans="2:5">
+        <v>162</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F152" s="2"/>
+    </row>
+    <row r="153" customHeight="1" spans="2:6">
       <c r="B153" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E153" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="154" customHeight="1" spans="2:4">
+      <c r="F153" s="2"/>
+    </row>
+    <row r="154" customHeight="1" spans="2:5">
       <c r="B154" s="1" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>155</v>
+        <v>196</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="2:5">
       <c r="B155" s="1" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>368</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="E155" s="2"/>
     </row>
     <row r="156" customHeight="1" spans="2:5">
       <c r="B156" s="1" t="s">
-        <v>369</v>
+        <v>295</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="157" customHeight="1" spans="2:5">
+        <v>162</v>
+      </c>
+      <c r="E156" s="2"/>
+    </row>
+    <row r="157" customHeight="1" spans="1:3">
+      <c r="A157" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="B157" s="1" t="s">
-        <v>270</v>
+        <v>4</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D157" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="158" customHeight="1" spans="2:4">
+    </row>
+    <row r="158" customHeight="1" spans="2:3">
       <c r="B158" s="1" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="2:5">
       <c r="B159" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="E159" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="2:5">
       <c r="B160" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="161" customHeight="1" spans="2:5">
       <c r="B161" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="162" customHeight="1" spans="2:4">
       <c r="B162" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>155</v>
@@ -5689,162 +5719,262 @@
     </row>
     <row r="163" customHeight="1" spans="2:5">
       <c r="B163" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>380</v>
+        <v>135</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="164" customHeight="1" spans="2:5">
       <c r="B164" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="165" customHeight="1" spans="1:3">
-      <c r="A165" s="1" t="s">
-        <v>383</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="165" customHeight="1" spans="2:5">
       <c r="B165" s="1" t="s">
-        <v>4</v>
+        <v>276</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="166" customHeight="1" spans="2:3">
+      <c r="D165" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="166" customHeight="1" spans="2:4">
       <c r="B166" s="1" t="s">
-        <v>6</v>
+        <v>278</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>135</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="167" customHeight="1" spans="2:5">
       <c r="B167" s="1" t="s">
-        <v>176</v>
+        <v>380</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>155</v>
+        <v>249</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="168" customHeight="1" spans="2:5">
       <c r="B168" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D168" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="E168" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="2:5">
       <c r="B169" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D169" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="170" customHeight="1" spans="2:4">
+      <c r="B170" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="170" customHeight="1" spans="2:5">
-      <c r="B170" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="171" customHeight="1" spans="2:5">
       <c r="B171" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="172" customHeight="1" spans="2:5">
+      <c r="B172" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="173" customHeight="1" spans="1:3">
+      <c r="A173" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C171" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E171" s="1" t="s">
+      <c r="B173" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="174" customHeight="1" spans="2:3">
+      <c r="B174" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="175" customHeight="1" spans="2:5">
+      <c r="B175" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E175" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="172" customHeight="1" spans="2:4">
-      <c r="B172" s="1" t="s">
+    <row r="176" customHeight="1" spans="2:5">
+      <c r="B176" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D172" s="1" t="s">
+      <c r="C176" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="173" customHeight="1" spans="2:5">
-      <c r="B173" s="1" t="s">
+      <c r="E176" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E173" s="1" t="s">
+    </row>
+    <row r="177" customHeight="1" spans="2:5">
+      <c r="B177" s="1" t="s">
         <v>395</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="178" customHeight="1" spans="2:5">
+      <c r="B178" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="179" customHeight="1" spans="2:5">
+      <c r="B179" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="180" customHeight="1" spans="2:4">
+      <c r="B180" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="181" customHeight="1" spans="2:5">
+      <c r="B181" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A15:A40"/>
-    <mergeCell ref="A41:A67"/>
-    <mergeCell ref="A68:A96"/>
-    <mergeCell ref="A97:A112"/>
-    <mergeCell ref="A113:A123"/>
-    <mergeCell ref="A124:A148"/>
-    <mergeCell ref="A149:A164"/>
-    <mergeCell ref="A165:A173"/>
-    <mergeCell ref="E43:E54"/>
-    <mergeCell ref="E56:E67"/>
-    <mergeCell ref="E71:E75"/>
-    <mergeCell ref="E76:E80"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="E85:E96"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="E127:E136"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="E141:E145"/>
-    <mergeCell ref="E146:E148"/>
-    <mergeCell ref="E153:E154"/>
-    <mergeCell ref="E157:E158"/>
+    <mergeCell ref="A15:A42"/>
+    <mergeCell ref="A43:A73"/>
+    <mergeCell ref="A74:A104"/>
+    <mergeCell ref="A105:A120"/>
+    <mergeCell ref="A121:A131"/>
+    <mergeCell ref="A132:A156"/>
+    <mergeCell ref="A157:A172"/>
+    <mergeCell ref="A173:A181"/>
+    <mergeCell ref="E45:E58"/>
+    <mergeCell ref="E60:E73"/>
+    <mergeCell ref="E77:E81"/>
+    <mergeCell ref="E82:E86"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="E91:E104"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="E135:E144"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="E149:E153"/>
+    <mergeCell ref="E154:E156"/>
     <mergeCell ref="E161:E162"/>
-    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="E165:E166"/>
+    <mergeCell ref="E169:E170"/>
+    <mergeCell ref="E179:E180"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/DOC/IO.xlsx
+++ b/DOC/IO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="408">
   <si>
     <t>I</t>
   </si>
@@ -1131,6 +1131,18 @@
   </si>
   <si>
     <t>hold the if procedure</t>
+  </si>
+  <si>
+    <t>irq_jmp_i</t>
+  </si>
+  <si>
+    <t>to enable the pc jump for irq or except</t>
+  </si>
+  <si>
+    <t>irq_jmp_to_i</t>
+  </si>
+  <si>
+    <t>the pc for mtvec or mepc</t>
   </si>
   <si>
     <t>jmp_num1_i</t>
@@ -1234,10 +1246,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1260,31 +1272,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1305,7 +1302,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1319,9 +1316,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1336,16 +1348,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1359,14 +1385,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1384,21 +1410,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1449,31 +1461,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1485,7 +1479,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1497,13 +1503,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1521,7 +1521,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1533,25 +1587,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1563,7 +1599,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1575,43 +1611,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1623,13 +1641,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1682,15 +1694,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1702,6 +1705,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1741,17 +1759,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1763,28 +1775,28 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1793,115 +1805,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3526,10 +3538,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P181"/>
+  <dimension ref="A1:P183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="E161" sqref="E161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -5699,14 +5711,11 @@
       <c r="C161" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D161" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="E161" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="162" customHeight="1" spans="2:4">
+    <row r="162" customHeight="1" spans="2:5">
       <c r="B162" s="1" t="s">
         <v>374</v>
       </c>
@@ -5716,10 +5725,13 @@
       <c r="D162" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="E162" s="1" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="163" customHeight="1" spans="2:5">
       <c r="B163" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>135</v>
@@ -5727,13 +5739,13 @@
       <c r="D163" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E163" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="164" customHeight="1" spans="2:5">
+      <c r="E163" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="164" customHeight="1" spans="2:4">
       <c r="B164" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>135</v>
@@ -5741,58 +5753,58 @@
       <c r="D164" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E164" s="2" t="s">
-        <v>378</v>
-      </c>
     </row>
     <row r="165" customHeight="1" spans="2:5">
       <c r="B165" s="1" t="s">
-        <v>276</v>
+        <v>379</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="166" customHeight="1" spans="2:4">
+        <v>155</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="166" customHeight="1" spans="2:5">
       <c r="B166" s="1" t="s">
-        <v>278</v>
+        <v>381</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>187</v>
+        <v>155</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="167" customHeight="1" spans="2:5">
       <c r="B167" s="1" t="s">
-        <v>380</v>
+        <v>276</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="168" customHeight="1" spans="2:5">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="168" customHeight="1" spans="2:4">
       <c r="B168" s="1" t="s">
-        <v>382</v>
+        <v>278</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E168" s="1" t="s">
-        <v>383</v>
+      <c r="D168" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="2:5">
@@ -5800,98 +5812,95 @@
         <v>384</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="170" customHeight="1" spans="2:4">
+    <row r="170" customHeight="1" spans="2:5">
       <c r="B170" s="1" t="s">
         <v>386</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>155</v>
+        <v>135</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="171" customHeight="1" spans="2:5">
       <c r="B171" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>162</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="172" customHeight="1" spans="2:5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="172" customHeight="1" spans="2:4">
       <c r="B172" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D172" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="173" customHeight="1" spans="2:5">
+      <c r="B173" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="174" customHeight="1" spans="2:5">
+      <c r="B174" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E172" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="173" customHeight="1" spans="1:3">
-      <c r="A173" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B173" s="1" t="s">
+      <c r="E174" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="175" customHeight="1" spans="1:3">
+      <c r="A175" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="174" customHeight="1" spans="2:3">
-      <c r="B174" s="1" t="s">
+      <c r="C175" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="176" customHeight="1" spans="2:3">
+      <c r="B176" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C174" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="175" customHeight="1" spans="2:5">
-      <c r="B175" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="176" customHeight="1" spans="2:5">
-      <c r="B176" s="1" t="s">
-        <v>393</v>
-      </c>
       <c r="C176" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="177" customHeight="1" spans="2:5">
       <c r="B177" s="1" t="s">
-        <v>395</v>
+        <v>176</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>135</v>
@@ -5910,6 +5919,9 @@
       <c r="C178" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="D178" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="E178" s="1" t="s">
         <v>398</v>
       </c>
@@ -5919,32 +5931,57 @@
         <v>399</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="180" customHeight="1" spans="2:4">
+    <row r="180" customHeight="1" spans="2:5">
       <c r="B180" s="1" t="s">
         <v>401</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>155</v>
+        <v>135</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="181" customHeight="1" spans="2:5">
       <c r="B181" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>162</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="182" customHeight="1" spans="2:4">
+      <c r="B182" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="183" customHeight="1" spans="2:5">
+      <c r="B183" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -5957,8 +5994,8 @@
     <mergeCell ref="A105:A120"/>
     <mergeCell ref="A121:A131"/>
     <mergeCell ref="A132:A156"/>
-    <mergeCell ref="A157:A172"/>
-    <mergeCell ref="A173:A181"/>
+    <mergeCell ref="A157:A174"/>
+    <mergeCell ref="A175:A183"/>
     <mergeCell ref="E45:E58"/>
     <mergeCell ref="E60:E73"/>
     <mergeCell ref="E77:E81"/>
@@ -5971,10 +6008,10 @@
     <mergeCell ref="E146:E147"/>
     <mergeCell ref="E149:E153"/>
     <mergeCell ref="E154:E156"/>
-    <mergeCell ref="E161:E162"/>
-    <mergeCell ref="E165:E166"/>
-    <mergeCell ref="E169:E170"/>
-    <mergeCell ref="E179:E180"/>
+    <mergeCell ref="E163:E164"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="E181:E182"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
